--- a/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -33,9 +33,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -830,19 +830,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="F10" s="9">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="G10" s="9">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="H10" s="9">
-        <v>1277603</v>
+        <v>1600096</v>
       </c>
       <c r="I10" s="9">
-        <v>1600096</v>
+        <v>2021584</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -852,19 +852,19 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>132680</v>
+        <v>173994</v>
       </c>
       <c r="F11" s="11">
-        <v>173994</v>
+        <v>189903</v>
       </c>
       <c r="G11" s="11">
-        <v>189903</v>
+        <v>243351</v>
       </c>
       <c r="H11" s="11">
-        <v>243351</v>
+        <v>275936</v>
       </c>
       <c r="I11" s="11">
-        <v>275936</v>
+        <v>266969</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -874,19 +874,19 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="F12" s="9">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="G12" s="9">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="H12" s="9">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="I12" s="9">
-        <v>241682</v>
+        <v>238736</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -896,19 +896,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1077463</v>
+        <v>1442938</v>
       </c>
       <c r="F13" s="13">
-        <v>1442938</v>
+        <v>1348199</v>
       </c>
       <c r="G13" s="13">
-        <v>1348199</v>
+        <v>1729014</v>
       </c>
       <c r="H13" s="13">
-        <v>1729014</v>
+        <v>2117714</v>
       </c>
       <c r="I13" s="13">
-        <v>2117714</v>
+        <v>2527289</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -918,19 +918,19 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-10000</v>
+        <v>-12528</v>
       </c>
       <c r="F14" s="9">
-        <v>-12528</v>
+        <v>-6933</v>
       </c>
       <c r="G14" s="9">
-        <v>-6933</v>
+        <v>-11644</v>
       </c>
       <c r="H14" s="9">
-        <v>-11644</v>
+        <v>-11231</v>
       </c>
       <c r="I14" s="9">
-        <v>-11231</v>
+        <v>-10263</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -940,19 +940,19 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1067463</v>
+        <v>1430410</v>
       </c>
       <c r="F15" s="13">
-        <v>1430410</v>
+        <v>1341266</v>
       </c>
       <c r="G15" s="13">
-        <v>1341266</v>
+        <v>1717370</v>
       </c>
       <c r="H15" s="13">
-        <v>1717370</v>
+        <v>2106483</v>
       </c>
       <c r="I15" s="13">
-        <v>2106483</v>
+        <v>2517026</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -984,19 +984,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-773</v>
+        <v>-1134</v>
       </c>
       <c r="F17" s="11">
-        <v>-1134</v>
+        <v>-1515</v>
       </c>
       <c r="G17" s="11">
-        <v>-1515</v>
+        <v>-601</v>
       </c>
       <c r="H17" s="11">
-        <v>-601</v>
+        <v>-1659</v>
       </c>
       <c r="I17" s="11">
-        <v>-1659</v>
+        <v>-2778</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1006,19 +1006,19 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1066690</v>
+        <v>1429276</v>
       </c>
       <c r="F18" s="15">
-        <v>1429276</v>
+        <v>1339751</v>
       </c>
       <c r="G18" s="15">
-        <v>1339751</v>
+        <v>1716769</v>
       </c>
       <c r="H18" s="15">
-        <v>1716769</v>
+        <v>2104824</v>
       </c>
       <c r="I18" s="15">
-        <v>2104824</v>
+        <v>2514248</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>28639</v>
       </c>
       <c r="G19" s="11">
-        <v>66839</v>
+        <v>48464</v>
       </c>
       <c r="H19" s="11">
-        <v>48464</v>
+        <v>148269</v>
       </c>
       <c r="I19" s="11">
-        <v>148269</v>
+        <v>116243</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1050,19 +1050,19 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-2352</v>
+        <v>-28639</v>
       </c>
       <c r="F20" s="9">
-        <v>-28639</v>
+        <v>-48464</v>
       </c>
       <c r="G20" s="9">
-        <v>-48464</v>
+        <v>-148269</v>
       </c>
       <c r="H20" s="9">
-        <v>-148269</v>
+        <v>-116243</v>
       </c>
       <c r="I20" s="9">
-        <v>-116243</v>
+        <v>-135686</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1072,19 +1072,19 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="F21" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="G21" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="H21" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="I21" s="13">
-        <v>2136850</v>
+        <v>2494805</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1116,19 +1116,19 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="F23" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="G23" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="H23" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="I23" s="13">
-        <v>2136850</v>
+        <v>2494805</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1213,8 +1213,8 @@
       <c r="H29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>26</v>
+      <c r="I29" s="9">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1226,19 +1226,19 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F30" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G30" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H30" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="I30" s="11">
-        <v>1054</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F31" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="G31" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1298,13 +1298,13 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="9">
-        <v>2</v>
-      </c>
-      <c r="G33" s="9">
         <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>26</v>
@@ -1322,19 +1322,19 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F34" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G34" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H34" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I34" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>513</v>
+        <v>643</v>
       </c>
       <c r="F35" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="G35" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="H35" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="I35" s="9">
-        <v>679</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F36" s="11">
+        <v>20</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
         <v>8</v>
       </c>
-      <c r="G36" s="11">
-        <v>20</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
       <c r="I36" s="11">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1394,19 +1394,19 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>736616</v>
+        <v>735744</v>
       </c>
       <c r="F37" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="G37" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="H37" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="I37" s="9">
-        <v>812690</v>
+        <v>789652</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1418,19 +1418,19 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="F38" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="G38" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="H38" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="I38" s="11">
-        <v>1308</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1442,19 +1442,19 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>770</v>
+        <v>1168</v>
       </c>
       <c r="F39" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="G39" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="H39" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="I39" s="9">
-        <v>2697</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F40" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="G40" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="H40" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I40" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1488,19 +1488,19 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>738928</v>
+        <v>738373</v>
       </c>
       <c r="F41" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="G41" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="H41" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="I41" s="15">
-        <v>818813</v>
+        <v>793985</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1585,8 +1585,8 @@
       <c r="H47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>26</v>
+      <c r="I47" s="9">
+        <v>-30</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="11">
-        <v>-1</v>
+        <v>1122</v>
       </c>
       <c r="H48" s="11">
-        <v>1122</v>
+        <v>-9</v>
       </c>
       <c r="I48" s="11">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -1622,19 +1622,19 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>69</v>
+      </c>
+      <c r="F49" s="9">
         <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <v>69</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -1675,8 +1675,8 @@
       <c r="F51" s="9">
         <v>0</v>
       </c>
-      <c r="G51" s="9">
-        <v>0</v>
+      <c r="G51" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>26</v>
@@ -1694,19 +1694,19 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F52" s="11">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H52" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I52" s="11">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1718,19 +1718,19 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>2766</v>
+        <v>3091</v>
       </c>
       <c r="F53" s="9">
-        <v>3091</v>
+        <v>2446</v>
       </c>
       <c r="G53" s="9">
-        <v>2446</v>
+        <v>3282</v>
       </c>
       <c r="H53" s="9">
-        <v>3282</v>
+        <v>3014</v>
       </c>
       <c r="I53" s="9">
-        <v>3014</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>480</v>
+        <v>582</v>
       </c>
       <c r="F54" s="11">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="G54" s="11">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="H54" s="11">
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="I54" s="11">
-        <v>564</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>2602847</v>
+        <v>2773518</v>
       </c>
       <c r="F55" s="9">
-        <v>2773518</v>
+        <v>2185967</v>
       </c>
       <c r="G55" s="9">
-        <v>2185967</v>
+        <v>2177507</v>
       </c>
       <c r="H55" s="9">
-        <v>2177507</v>
+        <v>2345717</v>
       </c>
       <c r="I55" s="9">
-        <v>2345717</v>
+        <v>2680026</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -1790,19 +1790,19 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>182</v>
+        <v>1332</v>
       </c>
       <c r="F56" s="11">
-        <v>1332</v>
+        <v>1622</v>
       </c>
       <c r="G56" s="11">
-        <v>1622</v>
+        <v>85</v>
       </c>
       <c r="H56" s="11">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I56" s="11">
-        <v>42</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -1814,19 +1814,19 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>1715</v>
+        <v>888</v>
       </c>
       <c r="F57" s="9">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="G57" s="9">
-        <v>927</v>
+        <v>3977</v>
       </c>
       <c r="H57" s="9">
-        <v>3977</v>
+        <v>-1</v>
       </c>
       <c r="I57" s="9">
-        <v>-1</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -1838,19 +1838,19 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="F58" s="11">
-        <v>679</v>
+        <v>539</v>
       </c>
       <c r="G58" s="11">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="H58" s="11">
-        <v>479</v>
+        <v>579</v>
       </c>
       <c r="I58" s="11">
-        <v>579</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -1860,19 +1860,19 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>2608937</v>
+        <v>2780421</v>
       </c>
       <c r="F59" s="15">
-        <v>2780421</v>
+        <v>2192181</v>
       </c>
       <c r="G59" s="15">
-        <v>2192181</v>
+        <v>2187097</v>
       </c>
       <c r="H59" s="15">
-        <v>2187097</v>
+        <v>2350105</v>
       </c>
       <c r="I59" s="15">
-        <v>2350105</v>
+        <v>2686986</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
       <c r="H65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="9">
         <v>26</v>
       </c>
     </row>
@@ -1970,19 +1970,19 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F66" s="11">
         <v>92</v>
       </c>
       <c r="G66" s="11">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H66" s="11">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I66" s="11">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -1994,19 +1994,19 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F67" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G67" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H67" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -2042,13 +2042,13 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" s="9">
-        <v>2</v>
-      </c>
-      <c r="G69" s="9">
         <v>0</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>26</v>
@@ -2066,19 +2066,19 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F70" s="11">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="G70" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H70" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I70" s="11">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -2090,19 +2090,19 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>2636</v>
+        <v>3449</v>
       </c>
       <c r="F71" s="9">
-        <v>3449</v>
+        <v>2730</v>
       </c>
       <c r="G71" s="9">
-        <v>2730</v>
+        <v>2604</v>
       </c>
       <c r="H71" s="9">
-        <v>2604</v>
+        <v>2864</v>
       </c>
       <c r="I71" s="9">
-        <v>2864</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="F72" s="11">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="G72" s="11">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="H72" s="11">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="I72" s="11">
-        <v>535</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>2603719</v>
+        <v>2694486</v>
       </c>
       <c r="F73" s="9">
-        <v>2694486</v>
+        <v>2220938</v>
       </c>
       <c r="G73" s="9">
-        <v>2220938</v>
+        <v>2144622</v>
       </c>
       <c r="H73" s="9">
-        <v>2144622</v>
+        <v>2368755</v>
       </c>
       <c r="I73" s="9">
-        <v>2368755</v>
+        <v>2696196</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2162,19 +2162,19 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>479</v>
+        <v>676</v>
       </c>
       <c r="F74" s="11">
-        <v>676</v>
+        <v>489</v>
       </c>
       <c r="G74" s="11">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="H74" s="11">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I74" s="11">
-        <v>566</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>1317</v>
+        <v>1586</v>
       </c>
       <c r="F75" s="9">
-        <v>1586</v>
+        <v>1386</v>
       </c>
       <c r="G75" s="9">
-        <v>1386</v>
+        <v>1291</v>
       </c>
       <c r="H75" s="9">
-        <v>1291</v>
+        <v>1443</v>
       </c>
       <c r="I75" s="9">
-        <v>1443</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2210,19 +2210,19 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>641</v>
+      </c>
+      <c r="F76" s="11">
+        <v>566</v>
+      </c>
+      <c r="G76" s="11">
+        <v>564</v>
+      </c>
+      <c r="H76" s="11">
         <v>571</v>
       </c>
-      <c r="F76" s="11">
-        <v>641</v>
-      </c>
-      <c r="G76" s="11">
-        <v>566</v>
-      </c>
-      <c r="H76" s="11">
-        <v>564</v>
-      </c>
       <c r="I76" s="11">
-        <v>571</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -2232,19 +2232,19 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>2609492</v>
+        <v>2701723</v>
       </c>
       <c r="F77" s="15">
-        <v>2701723</v>
+        <v>2226913</v>
       </c>
       <c r="G77" s="15">
-        <v>2226913</v>
+        <v>2150390</v>
       </c>
       <c r="H77" s="15">
-        <v>2150390</v>
+        <v>2375018</v>
       </c>
       <c r="I77" s="15">
-        <v>2375018</v>
+        <v>2703643</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2326,11 +2326,11 @@
       <c r="G83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>26</v>
+      <c r="H83" s="9">
+        <v>88</v>
       </c>
       <c r="I83" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F84" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G84" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="H84" s="11">
-        <v>1054</v>
+        <v>947</v>
       </c>
       <c r="I84" s="11">
-        <v>947</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2366,19 +2366,19 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="F85" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H85" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -2414,13 +2414,13 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
+      <c r="G87" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>26</v>
@@ -2438,19 +2438,19 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F88" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G88" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H88" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I88" s="11">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2462,19 +2462,19 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="F89" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="G89" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="H89" s="9">
-        <v>679</v>
+        <v>829</v>
       </c>
       <c r="I89" s="9">
-        <v>829</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2486,19 +2486,19 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>20</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
         <v>8</v>
       </c>
-      <c r="F90" s="11">
-        <v>20</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
       <c r="H90" s="11">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I90" s="11">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2510,19 +2510,19 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="F91" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="G91" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="H91" s="9">
-        <v>812690</v>
+        <v>789652</v>
       </c>
       <c r="I91" s="9">
-        <v>789652</v>
+        <v>773482</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2534,19 +2534,19 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="F92" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="G92" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="H92" s="11">
-        <v>1308</v>
+        <v>784</v>
       </c>
       <c r="I92" s="11">
-        <v>784</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2558,19 +2558,19 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="F93" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="G93" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="H93" s="9">
-        <v>2697</v>
+        <v>1253</v>
       </c>
       <c r="I93" s="9">
-        <v>1253</v>
+        <v>896</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2582,19 +2582,19 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="F94" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G94" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="H94" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I94" s="11">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2604,19 +2604,19 @@
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="F95" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="G95" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="H95" s="15">
-        <v>818813</v>
+        <v>793985</v>
       </c>
       <c r="I95" s="15">
-        <v>793985</v>
+        <v>777328</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2701,8 +2701,8 @@
       <c r="H101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I101" s="9" t="s">
-        <v>26</v>
+      <c r="I101" s="9">
+        <v>65656</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2714,19 +2714,19 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3862</v>
+        <v>25127</v>
       </c>
       <c r="F102" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="G102" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="H102" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="I102" s="11">
-        <v>176215</v>
+        <v>155341</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2738,19 +2738,19 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>107196</v>
+        <v>95711</v>
       </c>
       <c r="F103" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="G103" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="H103" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="I103" s="9">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2786,13 +2786,13 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>9368</v>
+        <v>4235</v>
       </c>
       <c r="F105" s="9">
-        <v>4235</v>
-      </c>
-      <c r="G105" s="9">
         <v>0</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>26</v>
@@ -2810,19 +2810,19 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>64405</v>
+        <v>73672</v>
       </c>
       <c r="F106" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="G106" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="H106" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="I106" s="11">
-        <v>106849</v>
+        <v>110027</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2834,19 +2834,19 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>19939</v>
+        <v>25826</v>
       </c>
       <c r="F107" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="G107" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="H107" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="I107" s="9">
-        <v>106741</v>
+        <v>129528</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>4158</v>
+        <v>1842</v>
       </c>
       <c r="F108" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="G108" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="H108" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="I108" s="11">
-        <v>2494</v>
+        <v>16190</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -2882,19 +2882,19 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>23457</v>
+        <v>24458</v>
       </c>
       <c r="F109" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="G109" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="H109" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="I109" s="9">
-        <v>33121</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2906,19 +2906,19 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>26868</v>
+        <v>146</v>
       </c>
       <c r="F110" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="G110" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="H110" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="I110" s="11">
-        <v>215150</v>
+        <v>137267</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -2930,19 +2930,19 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>66280</v>
+        <v>130357</v>
       </c>
       <c r="F111" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="G111" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="H111" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="I111" s="9">
-        <v>372515</v>
+        <v>173222</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -2954,19 +2954,19 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>124019</v>
+        <v>113168</v>
       </c>
       <c r="F112" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="G112" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="H112" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="I112" s="11">
-        <v>101715</v>
+        <v>105355</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -2976,19 +2976,19 @@
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
-        <v>449552</v>
+        <v>494542</v>
       </c>
       <c r="F113" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="G113" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="H113" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="I113" s="15">
-        <v>1114979</v>
+        <v>926241</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -3073,8 +3073,8 @@
       <c r="H119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="9" t="s">
-        <v>26</v>
+      <c r="I119" s="9">
+        <v>-36285</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -3086,19 +3086,19 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>36362</v>
+        <v>12060</v>
       </c>
       <c r="F120" s="11">
-        <v>12060</v>
+        <v>-1789</v>
       </c>
       <c r="G120" s="11">
-        <v>-1789</v>
+        <v>190023</v>
       </c>
       <c r="H120" s="11">
-        <v>190023</v>
+        <v>-4852</v>
       </c>
       <c r="I120" s="11">
-        <v>-4852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>29170</v>
+      </c>
+      <c r="F121" s="9">
+        <v>-842</v>
+      </c>
+      <c r="G121" s="9">
         <v>0</v>
       </c>
-      <c r="F121" s="9">
-        <v>29170</v>
-      </c>
-      <c r="G121" s="9">
-        <v>-842</v>
-      </c>
       <c r="H121" s="9">
-        <v>0</v>
+        <v>30794</v>
       </c>
       <c r="I121" s="9">
-        <v>30794</v>
+        <v>47961</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -3163,8 +3163,8 @@
       <c r="F123" s="9">
         <v>0</v>
       </c>
-      <c r="G123" s="9">
-        <v>0</v>
+      <c r="G123" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>26</v>
@@ -3182,19 +3182,19 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>120607</v>
+        <v>210367</v>
       </c>
       <c r="F124" s="11">
-        <v>210367</v>
+        <v>111721</v>
       </c>
       <c r="G124" s="11">
-        <v>111721</v>
+        <v>141414</v>
       </c>
       <c r="H124" s="11">
-        <v>141414</v>
+        <v>141778</v>
       </c>
       <c r="I124" s="11">
-        <v>141778</v>
+        <v>168106</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -3206,19 +3206,19 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>109705</v>
+        <v>124904</v>
       </c>
       <c r="F125" s="9">
-        <v>124904</v>
+        <v>93539</v>
       </c>
       <c r="G125" s="9">
-        <v>93539</v>
+        <v>478595</v>
       </c>
       <c r="H125" s="9">
-        <v>478595</v>
+        <v>472697</v>
       </c>
       <c r="I125" s="9">
-        <v>472697</v>
+        <v>472414</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3230,19 +3230,19 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>94940</v>
+        <v>129989</v>
       </c>
       <c r="F126" s="11">
-        <v>129989</v>
+        <v>118558</v>
       </c>
       <c r="G126" s="11">
-        <v>118558</v>
+        <v>129238</v>
       </c>
       <c r="H126" s="11">
-        <v>129238</v>
+        <v>208842</v>
       </c>
       <c r="I126" s="11">
-        <v>208842</v>
+        <v>251646</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3254,19 +3254,19 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>107092</v>
+        <v>120051</v>
       </c>
       <c r="F127" s="9">
-        <v>120051</v>
+        <v>109008</v>
       </c>
       <c r="G127" s="9">
-        <v>109008</v>
+        <v>115956</v>
       </c>
       <c r="H127" s="9">
-        <v>115956</v>
+        <v>146473</v>
       </c>
       <c r="I127" s="9">
-        <v>146473</v>
+        <v>166150</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>23754</v>
+        <v>193793</v>
       </c>
       <c r="F128" s="11">
-        <v>193793</v>
+        <v>224869</v>
       </c>
       <c r="G128" s="11">
-        <v>224869</v>
+        <v>49526</v>
       </c>
       <c r="H128" s="11">
-        <v>49526</v>
+        <v>34329</v>
       </c>
       <c r="I128" s="11">
-        <v>34329</v>
+        <v>591212</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
@@ -3302,19 +3302,19 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>203425</v>
+        <v>114175</v>
       </c>
       <c r="F129" s="9">
-        <v>114175</v>
+        <v>122997</v>
       </c>
       <c r="G129" s="9">
-        <v>122997</v>
+        <v>547417</v>
       </c>
       <c r="H129" s="9">
-        <v>547417</v>
+        <v>490</v>
       </c>
       <c r="I129" s="9">
-        <v>490</v>
+        <v>242980</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>143726</v>
+        <v>226790</v>
       </c>
       <c r="F130" s="11">
-        <v>226790</v>
+        <v>209576</v>
       </c>
       <c r="G130" s="11">
-        <v>209576</v>
+        <v>227764</v>
       </c>
       <c r="H130" s="11">
-        <v>227764</v>
+        <v>271771</v>
       </c>
       <c r="I130" s="11">
-        <v>271771</v>
+        <v>401602</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
@@ -3348,19 +3348,19 @@
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>839611</v>
+        <v>1161299</v>
       </c>
       <c r="F131" s="15">
-        <v>1161299</v>
+        <v>987637</v>
       </c>
       <c r="G131" s="15">
-        <v>987637</v>
+        <v>1879933</v>
       </c>
       <c r="H131" s="15">
-        <v>1879933</v>
+        <v>1302322</v>
       </c>
       <c r="I131" s="15">
-        <v>1302322</v>
+        <v>2305786</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
@@ -3445,8 +3445,8 @@
       <c r="H137" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I137" s="9" t="s">
-        <v>26</v>
+      <c r="I137" s="9">
+        <v>4858</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
@@ -3458,19 +3458,19 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>15097</v>
+        <v>16546</v>
       </c>
       <c r="F138" s="11">
-        <v>16546</v>
+        <v>16333</v>
       </c>
       <c r="G138" s="11">
-        <v>16333</v>
+        <v>16327</v>
       </c>
       <c r="H138" s="11">
-        <v>16327</v>
+        <v>16022</v>
       </c>
       <c r="I138" s="11">
-        <v>16022</v>
+        <v>17469</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
@@ -3482,19 +3482,19 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>11485</v>
+        <v>10456</v>
       </c>
       <c r="F139" s="9">
-        <v>10456</v>
+        <v>7513</v>
       </c>
       <c r="G139" s="9">
-        <v>7513</v>
+        <v>12982</v>
       </c>
       <c r="H139" s="9">
-        <v>12982</v>
+        <v>30777</v>
       </c>
       <c r="I139" s="9">
-        <v>30777</v>
+        <v>37661</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
@@ -3530,13 +3530,13 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>5133</v>
+        <v>4235</v>
       </c>
       <c r="F141" s="9">
-        <v>4235</v>
-      </c>
-      <c r="G141" s="9">
         <v>0</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>26</v>
@@ -3554,19 +3554,19 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>111340</v>
+        <v>167391</v>
       </c>
       <c r="F142" s="11">
-        <v>167391</v>
+        <v>130148</v>
       </c>
       <c r="G142" s="11">
-        <v>130148</v>
+        <v>132786</v>
       </c>
       <c r="H142" s="11">
-        <v>132786</v>
+        <v>138600</v>
       </c>
       <c r="I142" s="11">
-        <v>138600</v>
+        <v>169989</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
@@ -3578,19 +3578,19 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>103818</v>
+        <v>139116</v>
       </c>
       <c r="F143" s="9">
-        <v>139116</v>
+        <v>105125</v>
       </c>
       <c r="G143" s="9">
-        <v>105125</v>
+        <v>371882</v>
       </c>
       <c r="H143" s="9">
-        <v>371882</v>
+        <v>449910</v>
       </c>
       <c r="I143" s="9">
-        <v>449910</v>
+        <v>532012</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
@@ -3602,19 +3602,19 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>97256</v>
+        <v>128026</v>
       </c>
       <c r="F144" s="11">
-        <v>128026</v>
+        <v>122363</v>
       </c>
       <c r="G144" s="11">
-        <v>122363</v>
+        <v>126744</v>
       </c>
       <c r="H144" s="11">
-        <v>126744</v>
+        <v>195146</v>
       </c>
       <c r="I144" s="11">
-        <v>195146</v>
+        <v>256693</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
@@ -3626,19 +3626,19 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>106091</v>
+        <v>114892</v>
       </c>
       <c r="F145" s="9">
-        <v>114892</v>
+        <v>108973</v>
       </c>
       <c r="G145" s="9">
-        <v>108973</v>
+        <v>112487</v>
       </c>
       <c r="H145" s="9">
-        <v>112487</v>
+        <v>146135</v>
       </c>
       <c r="I145" s="9">
-        <v>146135</v>
+        <v>161834</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
@@ -3650,19 +3650,19 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>50476</v>
+        <v>96973</v>
       </c>
       <c r="F146" s="11">
-        <v>96973</v>
+        <v>69250</v>
       </c>
       <c r="G146" s="11">
-        <v>69250</v>
+        <v>86961</v>
       </c>
       <c r="H146" s="11">
-        <v>86961</v>
+        <v>112212</v>
       </c>
       <c r="I146" s="11">
-        <v>112212</v>
+        <v>212945</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -3674,19 +3674,19 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>139348</v>
+        <v>188582</v>
       </c>
       <c r="F147" s="9">
-        <v>188582</v>
+        <v>177686</v>
       </c>
       <c r="G147" s="9">
-        <v>177686</v>
+        <v>176163</v>
       </c>
       <c r="H147" s="9">
-        <v>176163</v>
+        <v>199783</v>
       </c>
       <c r="I147" s="9">
-        <v>199783</v>
+        <v>255273</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>154577</v>
+        <v>200283</v>
       </c>
       <c r="F148" s="11">
-        <v>200283</v>
+        <v>234029</v>
       </c>
       <c r="G148" s="11">
-        <v>234029</v>
+        <v>241271</v>
       </c>
       <c r="H148" s="11">
-        <v>241271</v>
+        <v>264716</v>
       </c>
       <c r="I148" s="11">
-        <v>264716</v>
+        <v>372850</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -3720,19 +3720,19 @@
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="F149" s="15">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="G149" s="15">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="H149" s="15">
-        <v>1277603</v>
+        <v>1553301</v>
       </c>
       <c r="I149" s="15">
-        <v>1553301</v>
+        <v>2021584</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -3814,11 +3814,11 @@
       <c r="G155" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H155" s="9" t="s">
-        <v>26</v>
+      <c r="H155" s="9">
+        <v>65656</v>
       </c>
       <c r="I155" s="9">
-        <v>65656</v>
+        <v>24513</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -3830,19 +3830,19 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="F156" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="G156" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="H156" s="11">
-        <v>176215</v>
+        <v>155341</v>
       </c>
       <c r="I156" s="11">
-        <v>155341</v>
+        <v>137872</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="F157" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="G157" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="H157" s="9">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I157" s="9">
-        <v>196</v>
+        <v>10496</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
@@ -3902,13 +3902,13 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
       </c>
-      <c r="G159" s="9">
-        <v>0</v>
+      <c r="G159" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>26</v>
@@ -3926,19 +3926,19 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="F160" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="G160" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="H160" s="11">
-        <v>106849</v>
+        <v>110027</v>
       </c>
       <c r="I160" s="11">
-        <v>110027</v>
+        <v>108144</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="F161" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="G161" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="H161" s="9">
-        <v>106741</v>
+        <v>129528</v>
       </c>
       <c r="I161" s="9">
-        <v>129528</v>
+        <v>69930</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
@@ -3974,19 +3974,19 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="F162" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="G162" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="H162" s="11">
-        <v>2494</v>
+        <v>16190</v>
       </c>
       <c r="I162" s="11">
-        <v>16190</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -3998,19 +3998,19 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="F163" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="G163" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="H163" s="9">
-        <v>33121</v>
+        <v>33459</v>
       </c>
       <c r="I163" s="9">
-        <v>33459</v>
+        <v>37775</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
@@ -4022,19 +4022,19 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="F164" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="G164" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="H164" s="11">
-        <v>215150</v>
+        <v>137267</v>
       </c>
       <c r="I164" s="11">
-        <v>137267</v>
+        <v>515534</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -4046,19 +4046,19 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="F165" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="G165" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="H165" s="9">
-        <v>372515</v>
+        <v>173222</v>
       </c>
       <c r="I165" s="9">
-        <v>173222</v>
+        <v>160929</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
@@ -4070,19 +4070,19 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="F166" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="G166" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="H166" s="11">
-        <v>101715</v>
+        <v>105355</v>
       </c>
       <c r="I166" s="11">
-        <v>105355</v>
+        <v>134107</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
@@ -4092,19 +4092,19 @@
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="F167" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="G167" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="H167" s="15">
-        <v>1114979</v>
+        <v>926241</v>
       </c>
       <c r="I167" s="15">
-        <v>926241</v>
+        <v>1210443</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
@@ -4189,8 +4189,8 @@
       <c r="H173" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I173" s="9" t="s">
-        <v>26</v>
+      <c r="I173" s="9">
+        <v>746090909</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>148538462</v>
+        <v>180769784</v>
       </c>
       <c r="F174" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="G174" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="H174" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="I174" s="11">
-        <v>167186907</v>
+        <v>164034847</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
@@ -4226,19 +4226,19 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>401483146</v>
+        <v>400464435</v>
       </c>
       <c r="F175" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="G175" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="H175" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="I175" s="9">
         <v>179000000</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
@@ -4274,10 +4274,10 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>1873600000</v>
-      </c>
-      <c r="F177" s="9">
         <v>2117500000</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G177" s="9" t="s">
         <v>26</v>
@@ -4298,19 +4298,19 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>441130137</v>
+        <v>460450000</v>
       </c>
       <c r="F178" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="G178" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="H178" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="I178" s="11">
-        <v>590325967</v>
+        <v>564241026</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
@@ -4322,19 +4322,19 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>38867446</v>
+        <v>40164852</v>
       </c>
       <c r="F179" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="G179" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="H179" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="I179" s="9">
-        <v>157203240</v>
+        <v>156246080</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -4346,13 +4346,13 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>166320000</v>
+        <v>230250000</v>
       </c>
       <c r="F180" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="G180" s="11">
         <v>190250000</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H180" s="11" t="s">
         <v>26</v>
@@ -4370,19 +4370,19 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>31844</v>
+        <v>33243</v>
       </c>
       <c r="F181" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="G181" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="H181" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="I181" s="9">
-        <v>40755</v>
+        <v>42372</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
@@ -4394,19 +4394,19 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>90161074</v>
+        <v>146000000</v>
       </c>
       <c r="F182" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="G182" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="H182" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="I182" s="11">
-        <v>164487768</v>
+        <v>175085459</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
@@ -4418,19 +4418,19 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
-        <v>86077922</v>
+        <v>111607021</v>
       </c>
       <c r="F183" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="G183" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="H183" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="I183" s="9">
-        <v>138121987</v>
+        <v>138245810</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
@@ -4442,19 +4442,19 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>473354962</v>
+        <v>420698885</v>
       </c>
       <c r="F184" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="G184" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="H184" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="I184" s="11">
-        <v>521615385</v>
+        <v>526775000</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -4539,8 +4539,8 @@
       <c r="H190" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I190" s="9" t="s">
-        <v>26</v>
+      <c r="I190" s="9">
+        <v>1209500000</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -4552,19 +4552,19 @@
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11">
-        <v>183646465</v>
+        <v>201000000</v>
       </c>
       <c r="F191" s="11">
-        <v>201000000</v>
+        <v>1789000000</v>
       </c>
       <c r="G191" s="11">
-        <v>1789000000</v>
+        <v>169360963</v>
       </c>
       <c r="H191" s="11">
-        <v>169360963</v>
-      </c>
-      <c r="I191" s="11">
         <v>539111111</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
@@ -4575,20 +4575,20 @@
         <v>48</v>
       </c>
       <c r="D192" s="9"/>
-      <c r="E192" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F192" s="9">
+      <c r="E192" s="9">
         <v>422753623</v>
       </c>
+      <c r="F192" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G192" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H192" s="9" t="s">
-        <v>26</v>
+      <c r="H192" s="9">
+        <v>905705882</v>
       </c>
       <c r="I192" s="9">
-        <v>905705882</v>
+        <v>799350000</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
@@ -4648,19 +4648,19 @@
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
-        <v>705304094</v>
+        <v>1041420792</v>
       </c>
       <c r="F195" s="11">
-        <v>1041420792</v>
+        <v>707094937</v>
       </c>
       <c r="G195" s="11">
-        <v>707094937</v>
+        <v>900726115</v>
       </c>
       <c r="H195" s="11">
-        <v>900726115</v>
+        <v>859260606</v>
       </c>
       <c r="I195" s="11">
-        <v>859260606</v>
+        <v>734087336</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
@@ -4672,19 +4672,19 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
-        <v>39661967</v>
+        <v>40408929</v>
       </c>
       <c r="F196" s="9">
-        <v>40408929</v>
+        <v>38241619</v>
       </c>
       <c r="G196" s="9">
-        <v>38241619</v>
+        <v>145824193</v>
       </c>
       <c r="H196" s="9">
-        <v>145824193</v>
+        <v>156833776</v>
       </c>
       <c r="I196" s="9">
-        <v>156833776</v>
+        <v>155246139</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -4696,19 +4696,19 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>197791667</v>
+        <v>223348797</v>
       </c>
       <c r="F197" s="11">
-        <v>223348797</v>
+        <v>226688337</v>
       </c>
       <c r="G197" s="11">
-        <v>226688337</v>
+        <v>264831967</v>
       </c>
       <c r="H197" s="11">
-        <v>264831967</v>
+        <v>370287234</v>
       </c>
       <c r="I197" s="11">
-        <v>370287234</v>
+        <v>422224832</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
@@ -4720,19 +4720,19 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>41144</v>
+        <v>43285</v>
       </c>
       <c r="F198" s="9">
-        <v>43285</v>
+        <v>49867</v>
       </c>
       <c r="G198" s="9">
-        <v>49867</v>
+        <v>53252</v>
       </c>
       <c r="H198" s="9">
-        <v>53252</v>
+        <v>62443</v>
       </c>
       <c r="I198" s="9">
-        <v>62443</v>
+        <v>61996</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
@@ -4744,19 +4744,19 @@
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>130516484</v>
+        <v>145490240</v>
       </c>
       <c r="F199" s="11">
-        <v>145490240</v>
+        <v>138636868</v>
       </c>
       <c r="G199" s="11">
-        <v>138636868</v>
+        <v>582658824</v>
       </c>
       <c r="H199" s="11">
-        <v>582658824</v>
+        <v>817357143</v>
       </c>
       <c r="I199" s="11">
-        <v>817357143</v>
+        <v>561988593</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
@@ -4768,19 +4768,19 @@
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9">
-        <v>118615160</v>
+        <v>128575450</v>
       </c>
       <c r="F200" s="9">
-        <v>128575450</v>
+        <v>132682848</v>
       </c>
       <c r="G200" s="9">
-        <v>132682848</v>
+        <v>137645713</v>
       </c>
       <c r="H200" s="9">
-        <v>137645713</v>
+        <v>-490000000</v>
       </c>
       <c r="I200" s="9">
-        <v>-490000000</v>
+        <v>183519637</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -4792,19 +4792,19 @@
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>248660900</v>
+        <v>334005891</v>
       </c>
       <c r="F201" s="11">
-        <v>334005891</v>
+        <v>388823748</v>
       </c>
       <c r="G201" s="11">
-        <v>388823748</v>
+        <v>475498956</v>
       </c>
       <c r="H201" s="11">
-        <v>475498956</v>
+        <v>469379965</v>
       </c>
       <c r="I201" s="11">
-        <v>469379965</v>
+        <v>585425656</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -4889,8 +4889,8 @@
       <c r="H207" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I207" s="9" t="s">
-        <v>26</v>
+      <c r="I207" s="9">
+        <v>186846154</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
-        <v>177611765</v>
+        <v>179847826</v>
       </c>
       <c r="F208" s="11">
-        <v>179847826</v>
+        <v>177532609</v>
       </c>
       <c r="G208" s="11">
-        <v>177532609</v>
+        <v>199109756</v>
       </c>
       <c r="H208" s="11">
-        <v>199109756</v>
+        <v>163489796</v>
       </c>
       <c r="I208" s="11">
-        <v>163489796</v>
+        <v>166371429</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
@@ -4926,19 +4926,19 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
-        <v>410178571</v>
+        <v>435666667</v>
       </c>
       <c r="F209" s="9">
-        <v>435666667</v>
+        <v>375650000</v>
       </c>
       <c r="G209" s="9">
-        <v>375650000</v>
+        <v>432733333</v>
       </c>
       <c r="H209" s="9">
-        <v>432733333</v>
+        <v>879342857</v>
       </c>
       <c r="I209" s="9">
-        <v>879342857</v>
+        <v>818717391</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
@@ -4974,10 +4974,10 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
-        <v>1711000000</v>
-      </c>
-      <c r="F211" s="9">
         <v>2117500000</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G211" s="9" t="s">
         <v>26</v>
@@ -4998,19 +4998,19 @@
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11">
-        <v>709171975</v>
+        <v>849700508</v>
       </c>
       <c r="F212" s="11">
-        <v>849700508</v>
+        <v>873476510</v>
       </c>
       <c r="G212" s="11">
-        <v>873476510</v>
+        <v>885240000</v>
       </c>
       <c r="H212" s="11">
-        <v>885240000</v>
+        <v>917880795</v>
       </c>
       <c r="I212" s="11">
-        <v>917880795</v>
+        <v>909032086</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
@@ -5022,19 +5022,19 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>39384674</v>
+        <v>40335170</v>
       </c>
       <c r="F213" s="9">
-        <v>40335170</v>
+        <v>38507326</v>
       </c>
       <c r="G213" s="9">
-        <v>38507326</v>
+        <v>142811828</v>
       </c>
       <c r="H213" s="9">
-        <v>142811828</v>
+        <v>157091480</v>
       </c>
       <c r="I213" s="9">
-        <v>157091480</v>
+        <v>155468147</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
-        <v>195686117</v>
+        <v>224607018</v>
       </c>
       <c r="F214" s="11">
-        <v>224607018</v>
+        <v>225346225</v>
       </c>
       <c r="G214" s="11">
-        <v>225346225</v>
+        <v>264050000</v>
       </c>
       <c r="H214" s="11">
-        <v>264050000</v>
+        <v>364758879</v>
       </c>
       <c r="I214" s="11">
-        <v>364758879</v>
+        <v>422192434</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>40746</v>
+        <v>42640</v>
       </c>
       <c r="F215" s="9">
-        <v>42640</v>
+        <v>49066</v>
       </c>
       <c r="G215" s="9">
-        <v>49066</v>
+        <v>52451</v>
       </c>
       <c r="H215" s="9">
-        <v>52451</v>
+        <v>61693</v>
       </c>
       <c r="I215" s="9">
-        <v>61693</v>
+        <v>60023</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
@@ -5094,19 +5094,19 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>105377871</v>
+        <v>143451183</v>
       </c>
       <c r="F216" s="11">
-        <v>143451183</v>
+        <v>141615542</v>
       </c>
       <c r="G216" s="11">
-        <v>141615542</v>
+        <v>153370370</v>
       </c>
       <c r="H216" s="11">
-        <v>153370370</v>
+        <v>198254417</v>
       </c>
       <c r="I216" s="11">
-        <v>198254417</v>
+        <v>326102603</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -5118,19 +5118,19 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>105807137</v>
+        <v>118904161</v>
       </c>
       <c r="F217" s="9">
-        <v>118904161</v>
+        <v>128200577</v>
       </c>
       <c r="G217" s="9">
-        <v>128200577</v>
+        <v>136454686</v>
       </c>
       <c r="H217" s="9">
-        <v>136454686</v>
+        <v>138449757</v>
       </c>
       <c r="I217" s="9">
-        <v>138449757</v>
+        <v>151857823</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
-        <v>270712785</v>
+        <v>312453978</v>
       </c>
       <c r="F218" s="11">
-        <v>312453978</v>
+        <v>413478799</v>
       </c>
       <c r="G218" s="11">
-        <v>413478799</v>
+        <v>427785461</v>
       </c>
       <c r="H218" s="11">
-        <v>427785461</v>
+        <v>463600701</v>
       </c>
       <c r="I218" s="11">
-        <v>463600701</v>
+        <v>518567455</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -5236,11 +5236,11 @@
       <c r="G224" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H224" s="9" t="s">
-        <v>26</v>
+      <c r="H224" s="9">
+        <v>746090909</v>
       </c>
       <c r="I224" s="9">
-        <v>746090909</v>
+        <v>766031250</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -5252,19 +5252,19 @@
       </c>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="F225" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="G225" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="H225" s="11">
-        <v>167186907</v>
+        <v>164034847</v>
       </c>
       <c r="I225" s="11">
-        <v>164034847</v>
+        <v>163743468</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -5276,19 +5276,19 @@
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="F226" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="G226" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="H226" s="9">
         <v>179000000</v>
       </c>
-      <c r="I226" s="9" t="s">
-        <v>26</v>
+      <c r="H226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="9">
+        <v>749714286</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -5323,8 +5323,8 @@
         <v>25</v>
       </c>
       <c r="D228" s="9"/>
-      <c r="E228" s="9">
-        <v>2117500000</v>
+      <c r="E228" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>26</v>
@@ -5348,19 +5348,19 @@
       </c>
       <c r="D229" s="11"/>
       <c r="E229" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="F229" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="G229" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="H229" s="11">
-        <v>590325967</v>
+        <v>564241026</v>
       </c>
       <c r="I229" s="11">
-        <v>564241026</v>
+        <v>456303797</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -5372,19 +5372,19 @@
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="F230" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="G230" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="H230" s="9">
-        <v>157203240</v>
+        <v>156246080</v>
       </c>
       <c r="I230" s="9">
-        <v>156246080</v>
+        <v>155400000</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -5396,19 +5396,19 @@
       </c>
       <c r="D231" s="11"/>
       <c r="E231" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="F231" s="11">
         <v>190250000</v>
       </c>
-      <c r="G231" s="11" t="s">
-        <v>26</v>
+      <c r="F231" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="11">
+        <v>311750000</v>
       </c>
       <c r="H231" s="11">
-        <v>311750000</v>
+        <v>437567568</v>
       </c>
       <c r="I231" s="11">
-        <v>437567568</v>
+        <v>445720000</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -5420,19 +5420,19 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="F232" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="G232" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="H232" s="9">
-        <v>40755</v>
+        <v>42372</v>
       </c>
       <c r="I232" s="9">
-        <v>42372</v>
+        <v>48838</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -5444,19 +5444,19 @@
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="F233" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="G233" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="H233" s="11">
-        <v>164487768</v>
+        <v>175085459</v>
       </c>
       <c r="I233" s="11">
-        <v>175085459</v>
+        <v>435785292</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -5468,19 +5468,19 @@
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="F234" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="G234" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="H234" s="9">
-        <v>138121987</v>
+        <v>138245810</v>
       </c>
       <c r="I234" s="9">
-        <v>138245810</v>
+        <v>179608259</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -5492,19 +5492,19 @@
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="F235" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="G235" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="H235" s="11">
-        <v>521615385</v>
+        <v>526775000</v>
       </c>
       <c r="I235" s="11">
-        <v>526775000</v>
+        <v>803035928</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -5664,19 +5664,19 @@
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
-        <v>12301</v>
+        <v>41581</v>
       </c>
       <c r="F245" s="9">
-        <v>41581</v>
+        <v>11233</v>
       </c>
       <c r="G245" s="9">
-        <v>11233</v>
+        <v>20469</v>
       </c>
       <c r="H245" s="9">
-        <v>20469</v>
+        <v>23919</v>
       </c>
       <c r="I245" s="9">
-        <v>23919</v>
+        <v>29355</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -5686,19 +5686,19 @@
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
-        <v>5489</v>
+        <v>7026</v>
       </c>
       <c r="F246" s="11">
-        <v>7026</v>
+        <v>13826</v>
       </c>
       <c r="G246" s="11">
-        <v>13826</v>
+        <v>6335</v>
       </c>
       <c r="H246" s="11">
-        <v>6335</v>
+        <v>9011</v>
       </c>
       <c r="I246" s="11">
-        <v>9011</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -5708,19 +5708,19 @@
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
-        <v>44536</v>
+        <v>43361</v>
       </c>
       <c r="F247" s="9">
-        <v>43361</v>
+        <v>44515</v>
       </c>
       <c r="G247" s="9">
-        <v>44515</v>
+        <v>47856</v>
       </c>
       <c r="H247" s="9">
-        <v>47856</v>
+        <v>47888</v>
       </c>
       <c r="I247" s="9">
-        <v>47888</v>
+        <v>46951</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -5730,19 +5730,19 @@
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11">
-        <v>75009</v>
+        <v>99267</v>
       </c>
       <c r="F248" s="11">
-        <v>99267</v>
+        <v>94672</v>
       </c>
       <c r="G248" s="11">
-        <v>94672</v>
+        <v>121932</v>
       </c>
       <c r="H248" s="11">
-        <v>121932</v>
+        <v>137828</v>
       </c>
       <c r="I248" s="11">
-        <v>137828</v>
+        <v>131168</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -5774,19 +5774,19 @@
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11">
-        <v>12827</v>
+        <v>11209</v>
       </c>
       <c r="F250" s="11">
-        <v>11209</v>
+        <v>22630</v>
       </c>
       <c r="G250" s="11">
-        <v>22630</v>
+        <v>11468</v>
       </c>
       <c r="H250" s="11">
-        <v>11468</v>
+        <v>23036</v>
       </c>
       <c r="I250" s="11">
-        <v>23036</v>
+        <v>22119</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -5796,19 +5796,19 @@
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="F251" s="15">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="G251" s="15">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="H251" s="15">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="I251" s="15">
-        <v>241682</v>
+        <v>238736</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F4EBB-217C-48B9-A033-872447DE7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +459,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -470,7 +471,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -517,6 +518,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -552,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,17 +738,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -723,7 +758,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +770,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,7 +782,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -757,7 +792,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -769,7 +804,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -781,7 +816,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -791,7 +826,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -813,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -823,139 +858,139 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="F10" s="9">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="G10" s="9">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="H10" s="9">
-        <v>1277603</v>
+        <v>1600096</v>
       </c>
       <c r="I10" s="9">
-        <v>1600096</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2021584</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>132680</v>
+        <v>173994</v>
       </c>
       <c r="F11" s="11">
-        <v>173994</v>
+        <v>189903</v>
       </c>
       <c r="G11" s="11">
-        <v>189903</v>
+        <v>243351</v>
       </c>
       <c r="H11" s="11">
-        <v>243351</v>
+        <v>275936</v>
       </c>
       <c r="I11" s="11">
-        <v>275936</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266969</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="F12" s="9">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="G12" s="9">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="H12" s="9">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="I12" s="9">
-        <v>241682</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>238736</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1077463</v>
+        <v>1442938</v>
       </c>
       <c r="F13" s="13">
-        <v>1442938</v>
+        <v>1348199</v>
       </c>
       <c r="G13" s="13">
-        <v>1348199</v>
+        <v>1729014</v>
       </c>
       <c r="H13" s="13">
-        <v>1729014</v>
+        <v>2117714</v>
       </c>
       <c r="I13" s="13">
-        <v>2117714</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2527289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-10000</v>
+        <v>-12528</v>
       </c>
       <c r="F14" s="9">
-        <v>-12528</v>
+        <v>-6933</v>
       </c>
       <c r="G14" s="9">
-        <v>-6933</v>
+        <v>-11644</v>
       </c>
       <c r="H14" s="9">
-        <v>-11644</v>
+        <v>-11231</v>
       </c>
       <c r="I14" s="9">
-        <v>-11231</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1067463</v>
+        <v>1430410</v>
       </c>
       <c r="F15" s="13">
-        <v>1430410</v>
+        <v>1341266</v>
       </c>
       <c r="G15" s="13">
-        <v>1341266</v>
+        <v>1717370</v>
       </c>
       <c r="H15" s="13">
-        <v>1717370</v>
+        <v>2106483</v>
       </c>
       <c r="I15" s="13">
-        <v>2106483</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2517026</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -977,51 +1012,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-773</v>
+        <v>-1134</v>
       </c>
       <c r="F17" s="11">
-        <v>-1134</v>
+        <v>-1515</v>
       </c>
       <c r="G17" s="11">
-        <v>-1515</v>
+        <v>-601</v>
       </c>
       <c r="H17" s="11">
-        <v>-601</v>
+        <v>-1659</v>
       </c>
       <c r="I17" s="11">
-        <v>-1659</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2778</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1066690</v>
+        <v>1429276</v>
       </c>
       <c r="F18" s="15">
-        <v>1429276</v>
+        <v>1339751</v>
       </c>
       <c r="G18" s="15">
-        <v>1339751</v>
+        <v>1716769</v>
       </c>
       <c r="H18" s="15">
-        <v>1716769</v>
+        <v>2104824</v>
       </c>
       <c r="I18" s="15">
-        <v>2104824</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2514248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1031,63 +1066,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>28639</v>
       </c>
       <c r="G19" s="11">
-        <v>66839</v>
+        <v>48464</v>
       </c>
       <c r="H19" s="11">
-        <v>48464</v>
+        <v>148269</v>
       </c>
       <c r="I19" s="11">
-        <v>148269</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116243</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-2352</v>
+        <v>-28639</v>
       </c>
       <c r="F20" s="9">
-        <v>-28639</v>
+        <v>-48464</v>
       </c>
       <c r="G20" s="9">
-        <v>-48464</v>
+        <v>-148269</v>
       </c>
       <c r="H20" s="9">
-        <v>-148269</v>
+        <v>-116243</v>
       </c>
       <c r="I20" s="9">
-        <v>-116243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-135686</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="F21" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="G21" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="H21" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="I21" s="13">
-        <v>2136850</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2494805</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1109,29 +1144,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1064338</v>
+        <v>1400637</v>
       </c>
       <c r="F23" s="13">
-        <v>1400637</v>
+        <v>1358126</v>
       </c>
       <c r="G23" s="13">
-        <v>1358126</v>
+        <v>1616964</v>
       </c>
       <c r="H23" s="13">
-        <v>1616964</v>
+        <v>2136850</v>
       </c>
       <c r="I23" s="13">
-        <v>2136850</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2494805</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1141,7 +1176,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1151,7 +1186,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1161,7 +1196,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1193,7 +1228,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1213,11 +1248,11 @@
       <c r="H29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1226,22 +1261,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F30" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G30" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H30" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="I30" s="11">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1250,22 +1285,22 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F31" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="G31" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1298,14 +1333,14 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="9">
-        <v>2</v>
-      </c>
-      <c r="G33" s="9">
         <v>0</v>
       </c>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1322,22 +1357,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F34" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G34" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H34" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I34" s="11">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1346,22 +1381,22 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>513</v>
+        <v>643</v>
       </c>
       <c r="F35" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="G35" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="H35" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="I35" s="9">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1370,22 +1405,22 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F36" s="11">
+        <v>20</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
         <v>8</v>
       </c>
-      <c r="G36" s="11">
-        <v>20</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
       <c r="I36" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1394,22 +1429,22 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>736616</v>
+        <v>735744</v>
       </c>
       <c r="F37" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="G37" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="H37" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="I37" s="9">
-        <v>812690</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>789652</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1418,22 +1453,22 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="F38" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="G38" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="H38" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="I38" s="11">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
@@ -1442,22 +1477,22 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>770</v>
+        <v>1168</v>
       </c>
       <c r="F39" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="G39" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="H39" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="I39" s="9">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1466,44 +1501,44 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F40" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="G40" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="H40" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I40" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>738928</v>
+        <v>738373</v>
       </c>
       <c r="F41" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="G41" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="H41" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="I41" s="15">
-        <v>818813</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>793985</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1513,7 +1548,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1523,7 +1558,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1533,7 +1568,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -1555,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1565,7 +1600,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1585,11 +1620,11 @@
       <c r="H47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="9">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1598,22 +1633,22 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="11">
-        <v>-1</v>
+        <v>1122</v>
       </c>
       <c r="H48" s="11">
-        <v>1122</v>
+        <v>-9</v>
       </c>
       <c r="I48" s="11">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1622,22 +1657,22 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>69</v>
+      </c>
+      <c r="F49" s="9">
         <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <v>69</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1675,8 +1710,8 @@
       <c r="F51" s="9">
         <v>0</v>
       </c>
-      <c r="G51" s="9">
-        <v>0</v>
+      <c r="G51" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>26</v>
@@ -1685,7 +1720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -1694,22 +1729,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F52" s="11">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H52" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I52" s="11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
@@ -1718,22 +1753,22 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>2766</v>
+        <v>3091</v>
       </c>
       <c r="F53" s="9">
-        <v>3091</v>
+        <v>2446</v>
       </c>
       <c r="G53" s="9">
-        <v>2446</v>
+        <v>3282</v>
       </c>
       <c r="H53" s="9">
-        <v>3282</v>
+        <v>3014</v>
       </c>
       <c r="I53" s="9">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
@@ -1742,22 +1777,22 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>480</v>
+        <v>582</v>
       </c>
       <c r="F54" s="11">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="G54" s="11">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="H54" s="11">
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="I54" s="11">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -1766,22 +1801,22 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>2602847</v>
+        <v>2773518</v>
       </c>
       <c r="F55" s="9">
-        <v>2773518</v>
+        <v>2185967</v>
       </c>
       <c r="G55" s="9">
-        <v>2185967</v>
+        <v>2177507</v>
       </c>
       <c r="H55" s="9">
-        <v>2177507</v>
+        <v>2345717</v>
       </c>
       <c r="I55" s="9">
-        <v>2345717</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2680026</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>36</v>
       </c>
@@ -1790,22 +1825,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>182</v>
+        <v>1332</v>
       </c>
       <c r="F56" s="11">
-        <v>1332</v>
+        <v>1622</v>
       </c>
       <c r="G56" s="11">
-        <v>1622</v>
+        <v>85</v>
       </c>
       <c r="H56" s="11">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I56" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>37</v>
       </c>
@@ -1814,22 +1849,22 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>1715</v>
+        <v>888</v>
       </c>
       <c r="F57" s="9">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="G57" s="9">
-        <v>927</v>
+        <v>3977</v>
       </c>
       <c r="H57" s="9">
-        <v>3977</v>
+        <v>-1</v>
       </c>
       <c r="I57" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>38</v>
       </c>
@@ -1838,44 +1873,44 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="F58" s="11">
-        <v>679</v>
+        <v>539</v>
       </c>
       <c r="G58" s="11">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="H58" s="11">
-        <v>479</v>
+        <v>579</v>
       </c>
       <c r="I58" s="11">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>2608937</v>
+        <v>2780421</v>
       </c>
       <c r="F59" s="15">
-        <v>2780421</v>
+        <v>2192181</v>
       </c>
       <c r="G59" s="15">
-        <v>2192181</v>
+        <v>2187097</v>
       </c>
       <c r="H59" s="15">
-        <v>2187097</v>
+        <v>2350105</v>
       </c>
       <c r="I59" s="15">
-        <v>2350105</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2686986</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1885,7 +1920,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1895,7 +1930,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1905,7 +1940,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>40</v>
       </c>
@@ -1927,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1937,7 +1972,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1957,11 +1992,11 @@
       <c r="H65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1970,22 +2005,22 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F66" s="11">
         <v>92</v>
       </c>
       <c r="G66" s="11">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H66" s="11">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I66" s="11">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1994,22 +2029,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F67" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G67" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H67" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -2042,14 +2077,14 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" s="9">
-        <v>2</v>
-      </c>
-      <c r="G69" s="9">
         <v>0</v>
       </c>
+      <c r="G69" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H69" s="9" t="s">
         <v>26</v>
       </c>
@@ -2057,7 +2092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
@@ -2066,22 +2101,22 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F70" s="11">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="G70" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H70" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I70" s="11">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>32</v>
       </c>
@@ -2090,22 +2125,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>2636</v>
+        <v>3449</v>
       </c>
       <c r="F71" s="9">
-        <v>3449</v>
+        <v>2730</v>
       </c>
       <c r="G71" s="9">
-        <v>2730</v>
+        <v>2604</v>
       </c>
       <c r="H71" s="9">
-        <v>2604</v>
+        <v>2864</v>
       </c>
       <c r="I71" s="9">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>33</v>
       </c>
@@ -2114,22 +2149,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="F72" s="11">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="G72" s="11">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="H72" s="11">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="I72" s="11">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>34</v>
       </c>
@@ -2138,22 +2173,22 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>2603719</v>
+        <v>2694486</v>
       </c>
       <c r="F73" s="9">
-        <v>2694486</v>
+        <v>2220938</v>
       </c>
       <c r="G73" s="9">
-        <v>2220938</v>
+        <v>2144622</v>
       </c>
       <c r="H73" s="9">
-        <v>2144622</v>
+        <v>2368755</v>
       </c>
       <c r="I73" s="9">
-        <v>2368755</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2696196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>36</v>
       </c>
@@ -2162,22 +2197,22 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>479</v>
+        <v>676</v>
       </c>
       <c r="F74" s="11">
-        <v>676</v>
+        <v>489</v>
       </c>
       <c r="G74" s="11">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="H74" s="11">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I74" s="11">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>37</v>
       </c>
@@ -2186,22 +2221,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>1317</v>
+        <v>1586</v>
       </c>
       <c r="F75" s="9">
-        <v>1586</v>
+        <v>1386</v>
       </c>
       <c r="G75" s="9">
-        <v>1386</v>
+        <v>1291</v>
       </c>
       <c r="H75" s="9">
-        <v>1291</v>
+        <v>1443</v>
       </c>
       <c r="I75" s="9">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>38</v>
       </c>
@@ -2210,44 +2245,44 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>641</v>
+      </c>
+      <c r="F76" s="11">
+        <v>566</v>
+      </c>
+      <c r="G76" s="11">
+        <v>564</v>
+      </c>
+      <c r="H76" s="11">
         <v>571</v>
       </c>
-      <c r="F76" s="11">
-        <v>641</v>
-      </c>
-      <c r="G76" s="11">
-        <v>566</v>
-      </c>
-      <c r="H76" s="11">
-        <v>564</v>
-      </c>
       <c r="I76" s="11">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>2609492</v>
+        <v>2701723</v>
       </c>
       <c r="F77" s="15">
-        <v>2701723</v>
+        <v>2226913</v>
       </c>
       <c r="G77" s="15">
-        <v>2226913</v>
+        <v>2150390</v>
       </c>
       <c r="H77" s="15">
-        <v>2150390</v>
+        <v>2375018</v>
       </c>
       <c r="I77" s="15">
-        <v>2375018</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2703643</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2257,7 +2292,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2267,7 +2302,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2277,7 +2312,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2309,7 +2344,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2326,14 +2361,14 @@
       <c r="G83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>26</v>
+      <c r="H83" s="9">
+        <v>88</v>
       </c>
       <c r="I83" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2342,22 +2377,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F84" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G84" s="11">
-        <v>14</v>
+        <v>1054</v>
       </c>
       <c r="H84" s="11">
-        <v>1054</v>
+        <v>947</v>
       </c>
       <c r="I84" s="11">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2366,22 +2401,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="F85" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H85" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>30</v>
       </c>
@@ -2414,13 +2449,13 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
+      <c r="G87" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>26</v>
@@ -2429,7 +2464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
@@ -2438,22 +2473,22 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F88" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G88" s="11">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H88" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I88" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>32</v>
       </c>
@@ -2462,22 +2497,22 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="F89" s="9">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="G89" s="9">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="H89" s="9">
-        <v>679</v>
+        <v>829</v>
       </c>
       <c r="I89" s="9">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>33</v>
       </c>
@@ -2486,22 +2521,22 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>20</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
         <v>8</v>
       </c>
-      <c r="F90" s="11">
-        <v>20</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
       <c r="H90" s="11">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I90" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -2510,22 +2545,22 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>735744</v>
+        <v>814776</v>
       </c>
       <c r="F91" s="9">
-        <v>814776</v>
+        <v>779805</v>
       </c>
       <c r="G91" s="9">
-        <v>779805</v>
+        <v>812690</v>
       </c>
       <c r="H91" s="9">
-        <v>812690</v>
+        <v>789652</v>
       </c>
       <c r="I91" s="9">
-        <v>789652</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>773482</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>36</v>
       </c>
@@ -2534,22 +2569,22 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="F92" s="11">
-        <v>657</v>
+        <v>1790</v>
       </c>
       <c r="G92" s="11">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="H92" s="11">
-        <v>1308</v>
+        <v>784</v>
       </c>
       <c r="I92" s="11">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>37</v>
       </c>
@@ -2558,22 +2593,22 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>1168</v>
+        <v>470</v>
       </c>
       <c r="F93" s="9">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="G93" s="9">
-        <v>11</v>
+        <v>2697</v>
       </c>
       <c r="H93" s="9">
-        <v>2697</v>
+        <v>1253</v>
       </c>
       <c r="I93" s="9">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>38</v>
       </c>
@@ -2582,44 +2617,44 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="F94" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G94" s="11">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="H94" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I94" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>738373</v>
+        <v>816838</v>
       </c>
       <c r="F95" s="15">
-        <v>816838</v>
+        <v>782106</v>
       </c>
       <c r="G95" s="15">
-        <v>782106</v>
+        <v>818813</v>
       </c>
       <c r="H95" s="15">
-        <v>818813</v>
+        <v>793985</v>
       </c>
       <c r="I95" s="15">
-        <v>793985</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>777328</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2629,7 +2664,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2639,7 +2674,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2649,7 +2684,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>42</v>
       </c>
@@ -2671,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2681,7 +2716,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2701,11 +2736,11 @@
       <c r="H101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="9">
+        <v>65656</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2714,22 +2749,22 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3862</v>
+        <v>25127</v>
       </c>
       <c r="F102" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="G102" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="H102" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="I102" s="11">
-        <v>176215</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155341</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2738,22 +2773,22 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>107196</v>
+        <v>95711</v>
       </c>
       <c r="F103" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="G103" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="H103" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="I103" s="9">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>29</v>
       </c>
@@ -2777,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
@@ -2786,14 +2821,14 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>9368</v>
+        <v>4235</v>
       </c>
       <c r="F105" s="9">
-        <v>4235</v>
-      </c>
-      <c r="G105" s="9">
         <v>0</v>
       </c>
+      <c r="G105" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H105" s="9" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>31</v>
       </c>
@@ -2810,22 +2845,22 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>64405</v>
+        <v>73672</v>
       </c>
       <c r="F106" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="G106" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="H106" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="I106" s="11">
-        <v>106849</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110027</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>32</v>
       </c>
@@ -2834,22 +2869,22 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>19939</v>
+        <v>25826</v>
       </c>
       <c r="F107" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="G107" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="H107" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="I107" s="9">
-        <v>106741</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129528</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>33</v>
       </c>
@@ -2858,22 +2893,22 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>4158</v>
+        <v>1842</v>
       </c>
       <c r="F108" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="G108" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="H108" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="I108" s="11">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16190</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
@@ -2882,22 +2917,22 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>23457</v>
+        <v>24458</v>
       </c>
       <c r="F109" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="G109" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="H109" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="I109" s="9">
-        <v>33121</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33459</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>36</v>
       </c>
@@ -2906,22 +2941,22 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>26868</v>
+        <v>146</v>
       </c>
       <c r="F110" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="G110" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="H110" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="I110" s="11">
-        <v>215150</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>137267</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
@@ -2930,22 +2965,22 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>66280</v>
+        <v>130357</v>
       </c>
       <c r="F111" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="G111" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="H111" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="I111" s="9">
-        <v>372515</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>173222</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>38</v>
       </c>
@@ -2954,44 +2989,44 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>124019</v>
+        <v>113168</v>
       </c>
       <c r="F112" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="G112" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="H112" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="I112" s="11">
-        <v>101715</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>105355</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
-        <v>449552</v>
+        <v>494542</v>
       </c>
       <c r="F113" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="G113" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="H113" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="I113" s="15">
-        <v>1114979</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>926241</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3001,7 +3036,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3011,7 +3046,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3021,7 +3056,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>44</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3053,7 +3088,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>24</v>
       </c>
@@ -3073,11 +3108,11 @@
       <c r="H119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="9">
+        <v>-36285</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>27</v>
       </c>
@@ -3086,22 +3121,22 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>36362</v>
+        <v>12060</v>
       </c>
       <c r="F120" s="11">
-        <v>12060</v>
+        <v>-1789</v>
       </c>
       <c r="G120" s="11">
-        <v>-1789</v>
+        <v>190023</v>
       </c>
       <c r="H120" s="11">
-        <v>190023</v>
+        <v>-4852</v>
       </c>
       <c r="I120" s="11">
-        <v>-4852</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>28</v>
       </c>
@@ -3110,22 +3145,22 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>29170</v>
+      </c>
+      <c r="F121" s="9">
+        <v>-842</v>
+      </c>
+      <c r="G121" s="9">
         <v>0</v>
       </c>
-      <c r="F121" s="9">
-        <v>29170</v>
-      </c>
-      <c r="G121" s="9">
-        <v>-842</v>
-      </c>
       <c r="H121" s="9">
-        <v>0</v>
+        <v>30794</v>
       </c>
       <c r="I121" s="9">
-        <v>30794</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>47961</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>29</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>30</v>
       </c>
@@ -3163,8 +3198,8 @@
       <c r="F123" s="9">
         <v>0</v>
       </c>
-      <c r="G123" s="9">
-        <v>0</v>
+      <c r="G123" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>26</v>
@@ -3173,7 +3208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>31</v>
       </c>
@@ -3182,22 +3217,22 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>120607</v>
+        <v>210367</v>
       </c>
       <c r="F124" s="11">
-        <v>210367</v>
+        <v>111721</v>
       </c>
       <c r="G124" s="11">
-        <v>111721</v>
+        <v>141414</v>
       </c>
       <c r="H124" s="11">
-        <v>141414</v>
+        <v>141778</v>
       </c>
       <c r="I124" s="11">
-        <v>141778</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168106</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>32</v>
       </c>
@@ -3206,22 +3241,22 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>109705</v>
+        <v>124904</v>
       </c>
       <c r="F125" s="9">
-        <v>124904</v>
+        <v>93539</v>
       </c>
       <c r="G125" s="9">
-        <v>93539</v>
+        <v>478595</v>
       </c>
       <c r="H125" s="9">
-        <v>478595</v>
+        <v>472697</v>
       </c>
       <c r="I125" s="9">
-        <v>472697</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>472414</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>33</v>
       </c>
@@ -3230,22 +3265,22 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>94940</v>
+        <v>129989</v>
       </c>
       <c r="F126" s="11">
-        <v>129989</v>
+        <v>118558</v>
       </c>
       <c r="G126" s="11">
-        <v>118558</v>
+        <v>129238</v>
       </c>
       <c r="H126" s="11">
-        <v>129238</v>
+        <v>208842</v>
       </c>
       <c r="I126" s="11">
-        <v>208842</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251646</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -3254,22 +3289,22 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>107092</v>
+        <v>120051</v>
       </c>
       <c r="F127" s="9">
-        <v>120051</v>
+        <v>109008</v>
       </c>
       <c r="G127" s="9">
-        <v>109008</v>
+        <v>115956</v>
       </c>
       <c r="H127" s="9">
-        <v>115956</v>
+        <v>146473</v>
       </c>
       <c r="I127" s="9">
-        <v>146473</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>166150</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>36</v>
       </c>
@@ -3278,22 +3313,22 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>23754</v>
+        <v>193793</v>
       </c>
       <c r="F128" s="11">
-        <v>193793</v>
+        <v>224869</v>
       </c>
       <c r="G128" s="11">
-        <v>224869</v>
+        <v>49526</v>
       </c>
       <c r="H128" s="11">
-        <v>49526</v>
+        <v>34329</v>
       </c>
       <c r="I128" s="11">
-        <v>34329</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>591212</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>37</v>
       </c>
@@ -3302,22 +3337,22 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>203425</v>
+        <v>114175</v>
       </c>
       <c r="F129" s="9">
-        <v>114175</v>
+        <v>122997</v>
       </c>
       <c r="G129" s="9">
-        <v>122997</v>
+        <v>547417</v>
       </c>
       <c r="H129" s="9">
-        <v>547417</v>
+        <v>490</v>
       </c>
       <c r="I129" s="9">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242980</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>38</v>
       </c>
@@ -3326,44 +3361,44 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>143726</v>
+        <v>226790</v>
       </c>
       <c r="F130" s="11">
-        <v>226790</v>
+        <v>209576</v>
       </c>
       <c r="G130" s="11">
-        <v>209576</v>
+        <v>227764</v>
       </c>
       <c r="H130" s="11">
-        <v>227764</v>
+        <v>271771</v>
       </c>
       <c r="I130" s="11">
-        <v>271771</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>401602</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>839611</v>
+        <v>1161299</v>
       </c>
       <c r="F131" s="15">
-        <v>1161299</v>
+        <v>987637</v>
       </c>
       <c r="G131" s="15">
-        <v>987637</v>
+        <v>1879933</v>
       </c>
       <c r="H131" s="15">
-        <v>1879933</v>
+        <v>1302322</v>
       </c>
       <c r="I131" s="15">
-        <v>1302322</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2305786</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3373,7 +3408,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3383,7 +3418,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3393,7 +3428,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>45</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3425,7 +3460,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>24</v>
       </c>
@@ -3445,11 +3480,11 @@
       <c r="H137" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I137" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="9">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3458,22 +3493,22 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>15097</v>
+        <v>16546</v>
       </c>
       <c r="F138" s="11">
-        <v>16546</v>
+        <v>16333</v>
       </c>
       <c r="G138" s="11">
-        <v>16333</v>
+        <v>16327</v>
       </c>
       <c r="H138" s="11">
-        <v>16327</v>
+        <v>16022</v>
       </c>
       <c r="I138" s="11">
-        <v>16022</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17469</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>28</v>
       </c>
@@ -3482,22 +3517,22 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>11485</v>
+        <v>10456</v>
       </c>
       <c r="F139" s="9">
-        <v>10456</v>
+        <v>7513</v>
       </c>
       <c r="G139" s="9">
-        <v>7513</v>
+        <v>12982</v>
       </c>
       <c r="H139" s="9">
-        <v>12982</v>
+        <v>30777</v>
       </c>
       <c r="I139" s="9">
-        <v>30777</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37661</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>29</v>
       </c>
@@ -3521,7 +3556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>30</v>
       </c>
@@ -3530,14 +3565,14 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>5133</v>
+        <v>4235</v>
       </c>
       <c r="F141" s="9">
-        <v>4235</v>
-      </c>
-      <c r="G141" s="9">
         <v>0</v>
       </c>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H141" s="9" t="s">
         <v>26</v>
       </c>
@@ -3545,7 +3580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
@@ -3554,22 +3589,22 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>111340</v>
+        <v>167391</v>
       </c>
       <c r="F142" s="11">
-        <v>167391</v>
+        <v>130148</v>
       </c>
       <c r="G142" s="11">
-        <v>130148</v>
+        <v>132786</v>
       </c>
       <c r="H142" s="11">
-        <v>132786</v>
+        <v>138600</v>
       </c>
       <c r="I142" s="11">
-        <v>138600</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>169989</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -3578,22 +3613,22 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>103818</v>
+        <v>139116</v>
       </c>
       <c r="F143" s="9">
-        <v>139116</v>
+        <v>105125</v>
       </c>
       <c r="G143" s="9">
-        <v>105125</v>
+        <v>371882</v>
       </c>
       <c r="H143" s="9">
-        <v>371882</v>
+        <v>449910</v>
       </c>
       <c r="I143" s="9">
-        <v>449910</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>532012</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>33</v>
       </c>
@@ -3602,22 +3637,22 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>97256</v>
+        <v>128026</v>
       </c>
       <c r="F144" s="11">
-        <v>128026</v>
+        <v>122363</v>
       </c>
       <c r="G144" s="11">
-        <v>122363</v>
+        <v>126744</v>
       </c>
       <c r="H144" s="11">
-        <v>126744</v>
+        <v>195146</v>
       </c>
       <c r="I144" s="11">
-        <v>195146</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>256693</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>34</v>
       </c>
@@ -3626,22 +3661,22 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>106091</v>
+        <v>114892</v>
       </c>
       <c r="F145" s="9">
-        <v>114892</v>
+        <v>108973</v>
       </c>
       <c r="G145" s="9">
-        <v>108973</v>
+        <v>112487</v>
       </c>
       <c r="H145" s="9">
-        <v>112487</v>
+        <v>146135</v>
       </c>
       <c r="I145" s="9">
-        <v>146135</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161834</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>36</v>
       </c>
@@ -3650,22 +3685,22 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>50476</v>
+        <v>96973</v>
       </c>
       <c r="F146" s="11">
-        <v>96973</v>
+        <v>69250</v>
       </c>
       <c r="G146" s="11">
-        <v>69250</v>
+        <v>86961</v>
       </c>
       <c r="H146" s="11">
-        <v>86961</v>
+        <v>112212</v>
       </c>
       <c r="I146" s="11">
-        <v>112212</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212945</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>37</v>
       </c>
@@ -3674,22 +3709,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>139348</v>
+        <v>188582</v>
       </c>
       <c r="F147" s="9">
-        <v>188582</v>
+        <v>177686</v>
       </c>
       <c r="G147" s="9">
-        <v>177686</v>
+        <v>176163</v>
       </c>
       <c r="H147" s="9">
-        <v>176163</v>
+        <v>199783</v>
       </c>
       <c r="I147" s="9">
-        <v>199783</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>255273</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>38</v>
       </c>
@@ -3698,44 +3733,44 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>154577</v>
+        <v>200283</v>
       </c>
       <c r="F148" s="11">
-        <v>200283</v>
+        <v>234029</v>
       </c>
       <c r="G148" s="11">
-        <v>234029</v>
+        <v>241271</v>
       </c>
       <c r="H148" s="11">
-        <v>241271</v>
+        <v>264716</v>
       </c>
       <c r="I148" s="11">
-        <v>264716</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>372850</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>794621</v>
+        <v>1066500</v>
       </c>
       <c r="F149" s="15">
-        <v>1066500</v>
+        <v>971420</v>
       </c>
       <c r="G149" s="15">
-        <v>971420</v>
+        <v>1277603</v>
       </c>
       <c r="H149" s="15">
-        <v>1277603</v>
+        <v>1553301</v>
       </c>
       <c r="I149" s="15">
-        <v>1553301</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2021584</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3745,7 +3780,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3755,7 +3790,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3765,7 +3800,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>46</v>
       </c>
@@ -3787,7 +3822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3797,7 +3832,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>24</v>
       </c>
@@ -3814,14 +3849,14 @@
       <c r="G155" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H155" s="9" t="s">
-        <v>26</v>
+      <c r="H155" s="9">
+        <v>65656</v>
       </c>
       <c r="I155" s="9">
-        <v>65656</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24513</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>27</v>
       </c>
@@ -3830,22 +3865,22 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>25127</v>
+        <v>20641</v>
       </c>
       <c r="F156" s="11">
-        <v>20641</v>
+        <v>2519</v>
       </c>
       <c r="G156" s="11">
-        <v>2519</v>
+        <v>176215</v>
       </c>
       <c r="H156" s="11">
-        <v>176215</v>
+        <v>155341</v>
       </c>
       <c r="I156" s="11">
-        <v>155341</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>137872</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>28</v>
       </c>
@@ -3854,22 +3889,22 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>95711</v>
+        <v>21516</v>
       </c>
       <c r="F157" s="9">
-        <v>21516</v>
+        <v>13161</v>
       </c>
       <c r="G157" s="9">
-        <v>13161</v>
+        <v>179</v>
       </c>
       <c r="H157" s="9">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I157" s="9">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>29</v>
       </c>
@@ -3893,7 +3928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>30</v>
       </c>
@@ -3902,13 +3937,13 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
       </c>
-      <c r="G159" s="9">
-        <v>0</v>
+      <c r="G159" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>26</v>
@@ -3917,7 +3952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>31</v>
       </c>
@@ -3926,22 +3961,22 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>73672</v>
+        <v>116648</v>
       </c>
       <c r="F160" s="11">
-        <v>116648</v>
+        <v>98221</v>
       </c>
       <c r="G160" s="11">
-        <v>98221</v>
+        <v>106849</v>
       </c>
       <c r="H160" s="11">
-        <v>106849</v>
+        <v>110027</v>
       </c>
       <c r="I160" s="11">
-        <v>110027</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108144</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>32</v>
       </c>
@@ -3950,22 +3985,22 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>25826</v>
+        <v>11614</v>
       </c>
       <c r="F161" s="9">
-        <v>11614</v>
+        <v>28</v>
       </c>
       <c r="G161" s="9">
-        <v>28</v>
+        <v>106741</v>
       </c>
       <c r="H161" s="9">
-        <v>106741</v>
+        <v>129528</v>
       </c>
       <c r="I161" s="9">
-        <v>129528</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69930</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>33</v>
       </c>
@@ -3974,22 +4009,22 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>1842</v>
+        <v>3805</v>
       </c>
       <c r="F162" s="11">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="G162" s="11">
-        <v>0</v>
+        <v>2494</v>
       </c>
       <c r="H162" s="11">
-        <v>2494</v>
+        <v>16190</v>
       </c>
       <c r="I162" s="11">
-        <v>16190</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11143</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>34</v>
       </c>
@@ -3998,22 +4033,22 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>24458</v>
+        <v>29617</v>
       </c>
       <c r="F163" s="9">
-        <v>29617</v>
+        <v>29652</v>
       </c>
       <c r="G163" s="9">
-        <v>29652</v>
+        <v>33121</v>
       </c>
       <c r="H163" s="9">
-        <v>33121</v>
+        <v>33459</v>
       </c>
       <c r="I163" s="9">
-        <v>33459</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37775</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>36</v>
       </c>
@@ -4022,22 +4057,22 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>146</v>
+        <v>96966</v>
       </c>
       <c r="F164" s="11">
-        <v>96966</v>
+        <v>252585</v>
       </c>
       <c r="G164" s="11">
-        <v>252585</v>
+        <v>215150</v>
       </c>
       <c r="H164" s="11">
-        <v>215150</v>
+        <v>137267</v>
       </c>
       <c r="I164" s="11">
-        <v>137267</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>515534</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>37</v>
       </c>
@@ -4046,22 +4081,22 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
-        <v>130357</v>
+        <v>55950</v>
       </c>
       <c r="F165" s="9">
-        <v>55950</v>
+        <v>1261</v>
       </c>
       <c r="G165" s="9">
-        <v>1261</v>
+        <v>372515</v>
       </c>
       <c r="H165" s="9">
-        <v>372515</v>
+        <v>173222</v>
       </c>
       <c r="I165" s="9">
-        <v>173222</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160929</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>38</v>
       </c>
@@ -4070,44 +4105,44 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>113168</v>
+        <v>139675</v>
       </c>
       <c r="F166" s="11">
-        <v>139675</v>
+        <v>115222</v>
       </c>
       <c r="G166" s="11">
-        <v>115222</v>
+        <v>101715</v>
       </c>
       <c r="H166" s="11">
-        <v>101715</v>
+        <v>105355</v>
       </c>
       <c r="I166" s="11">
-        <v>105355</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134107</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>494542</v>
+        <v>496432</v>
       </c>
       <c r="F167" s="15">
-        <v>496432</v>
+        <v>512649</v>
       </c>
       <c r="G167" s="15">
-        <v>512649</v>
+        <v>1114979</v>
       </c>
       <c r="H167" s="15">
-        <v>1114979</v>
+        <v>926241</v>
       </c>
       <c r="I167" s="15">
-        <v>926241</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1210443</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4117,7 +4152,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4127,7 +4162,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4137,7 +4172,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>47</v>
       </c>
@@ -4159,7 +4194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4169,7 +4204,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>24</v>
       </c>
@@ -4189,11 +4224,11 @@
       <c r="H173" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I173" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I173" s="9">
+        <v>746090909</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>27</v>
       </c>
@@ -4202,22 +4237,22 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>148538462</v>
+        <v>180769784</v>
       </c>
       <c r="F174" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="G174" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="H174" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="I174" s="11">
-        <v>167186907</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>164034847</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>28</v>
       </c>
@@ -4226,22 +4261,22 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>401483146</v>
+        <v>400464435</v>
       </c>
       <c r="F175" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="G175" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="H175" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="I175" s="9">
         <v>179000000</v>
       </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I175" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>29</v>
       </c>
@@ -4265,7 +4300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>30</v>
       </c>
@@ -4274,11 +4309,11 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>1873600000</v>
-      </c>
-      <c r="F177" s="9">
         <v>2117500000</v>
       </c>
+      <c r="F177" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G177" s="9" t="s">
         <v>26</v>
       </c>
@@ -4289,7 +4324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>31</v>
       </c>
@@ -4298,22 +4333,22 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>441130137</v>
+        <v>460450000</v>
       </c>
       <c r="F178" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="G178" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="H178" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="I178" s="11">
-        <v>590325967</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>564241026</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>32</v>
       </c>
@@ -4322,22 +4357,22 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>38867446</v>
+        <v>40164852</v>
       </c>
       <c r="F179" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="G179" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="H179" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="I179" s="9">
-        <v>157203240</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+        <v>156246080</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>33</v>
       </c>
@@ -4346,14 +4381,14 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>166320000</v>
+        <v>230250000</v>
       </c>
       <c r="F180" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="G180" s="11">
         <v>190250000</v>
       </c>
+      <c r="G180" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="H180" s="11" t="s">
         <v>26</v>
       </c>
@@ -4361,7 +4396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>34</v>
       </c>
@@ -4370,22 +4405,22 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>31844</v>
+        <v>33243</v>
       </c>
       <c r="F181" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="G181" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="H181" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="I181" s="9">
-        <v>40755</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42372</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>36</v>
       </c>
@@ -4394,22 +4429,22 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>90161074</v>
+        <v>146000000</v>
       </c>
       <c r="F182" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="G182" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="H182" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="I182" s="11">
-        <v>164487768</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175085459</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>37</v>
       </c>
@@ -4418,22 +4453,22 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
-        <v>86077922</v>
+        <v>111607021</v>
       </c>
       <c r="F183" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="G183" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="H183" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="I183" s="9">
-        <v>138121987</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>138245810</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>38</v>
       </c>
@@ -4442,22 +4477,22 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>473354962</v>
+        <v>420698885</v>
       </c>
       <c r="F184" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="G184" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="H184" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="I184" s="11">
-        <v>521615385</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+        <v>526775000</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4467,7 +4502,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4477,7 +4512,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4487,7 +4522,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
         <v>50</v>
       </c>
@@ -4509,7 +4544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4519,7 +4554,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>24</v>
       </c>
@@ -4539,11 +4574,11 @@
       <c r="H190" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I190" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="9">
+        <v>1209500000</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>27</v>
       </c>
@@ -4552,22 +4587,22 @@
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11">
-        <v>183646465</v>
+        <v>201000000</v>
       </c>
       <c r="F191" s="11">
-        <v>201000000</v>
+        <v>1789000000</v>
       </c>
       <c r="G191" s="11">
-        <v>1789000000</v>
+        <v>169360963</v>
       </c>
       <c r="H191" s="11">
-        <v>169360963</v>
-      </c>
-      <c r="I191" s="11">
         <v>539111111</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>28</v>
       </c>
@@ -4575,23 +4610,23 @@
         <v>48</v>
       </c>
       <c r="D192" s="9"/>
-      <c r="E192" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F192" s="9">
+      <c r="E192" s="9">
         <v>422753623</v>
       </c>
+      <c r="F192" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G192" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H192" s="9" t="s">
-        <v>26</v>
+      <c r="H192" s="9">
+        <v>905705882</v>
       </c>
       <c r="I192" s="9">
-        <v>905705882</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+        <v>799350000</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>29</v>
       </c>
@@ -4615,7 +4650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>30</v>
       </c>
@@ -4639,7 +4674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>31</v>
       </c>
@@ -4648,22 +4683,22 @@
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
-        <v>705304094</v>
+        <v>1041420792</v>
       </c>
       <c r="F195" s="11">
-        <v>1041420792</v>
+        <v>707094937</v>
       </c>
       <c r="G195" s="11">
-        <v>707094937</v>
+        <v>900726115</v>
       </c>
       <c r="H195" s="11">
-        <v>900726115</v>
+        <v>859260606</v>
       </c>
       <c r="I195" s="11">
-        <v>859260606</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+        <v>734087336</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>32</v>
       </c>
@@ -4672,22 +4707,22 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
-        <v>39661967</v>
+        <v>40408929</v>
       </c>
       <c r="F196" s="9">
-        <v>40408929</v>
+        <v>38241619</v>
       </c>
       <c r="G196" s="9">
-        <v>38241619</v>
+        <v>145824193</v>
       </c>
       <c r="H196" s="9">
-        <v>145824193</v>
+        <v>156833776</v>
       </c>
       <c r="I196" s="9">
-        <v>156833776</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155246139</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>33</v>
       </c>
@@ -4696,22 +4731,22 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>197791667</v>
+        <v>223348797</v>
       </c>
       <c r="F197" s="11">
-        <v>223348797</v>
+        <v>226688337</v>
       </c>
       <c r="G197" s="11">
-        <v>226688337</v>
+        <v>264831967</v>
       </c>
       <c r="H197" s="11">
-        <v>264831967</v>
+        <v>370287234</v>
       </c>
       <c r="I197" s="11">
-        <v>370287234</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>422224832</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>34</v>
       </c>
@@ -4720,22 +4755,22 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>41144</v>
+        <v>43285</v>
       </c>
       <c r="F198" s="9">
-        <v>43285</v>
+        <v>49867</v>
       </c>
       <c r="G198" s="9">
-        <v>49867</v>
+        <v>53252</v>
       </c>
       <c r="H198" s="9">
-        <v>53252</v>
+        <v>62443</v>
       </c>
       <c r="I198" s="9">
-        <v>62443</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61996</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>36</v>
       </c>
@@ -4744,22 +4779,22 @@
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>130516484</v>
+        <v>145490240</v>
       </c>
       <c r="F199" s="11">
-        <v>145490240</v>
+        <v>138636868</v>
       </c>
       <c r="G199" s="11">
-        <v>138636868</v>
+        <v>582658824</v>
       </c>
       <c r="H199" s="11">
-        <v>582658824</v>
+        <v>817357143</v>
       </c>
       <c r="I199" s="11">
-        <v>817357143</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>561988593</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>37</v>
       </c>
@@ -4768,22 +4803,22 @@
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9">
-        <v>118615160</v>
+        <v>128575450</v>
       </c>
       <c r="F200" s="9">
-        <v>128575450</v>
+        <v>132682848</v>
       </c>
       <c r="G200" s="9">
-        <v>132682848</v>
+        <v>137645713</v>
       </c>
       <c r="H200" s="9">
-        <v>137645713</v>
+        <v>-490000000</v>
       </c>
       <c r="I200" s="9">
-        <v>-490000000</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+        <v>183519637</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>38</v>
       </c>
@@ -4792,22 +4827,22 @@
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>248660900</v>
+        <v>334005891</v>
       </c>
       <c r="F201" s="11">
-        <v>334005891</v>
+        <v>388823748</v>
       </c>
       <c r="G201" s="11">
-        <v>388823748</v>
+        <v>475498956</v>
       </c>
       <c r="H201" s="11">
-        <v>475498956</v>
+        <v>469379965</v>
       </c>
       <c r="I201" s="11">
-        <v>469379965</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+        <v>585425656</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4817,7 +4852,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4827,7 +4862,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4837,7 +4872,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
         <v>51</v>
       </c>
@@ -4859,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4869,7 +4904,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>24</v>
       </c>
@@ -4889,11 +4924,11 @@
       <c r="H207" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I207" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I207" s="9">
+        <v>186846154</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>27</v>
       </c>
@@ -4902,22 +4937,22 @@
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
-        <v>177611765</v>
+        <v>179847826</v>
       </c>
       <c r="F208" s="11">
-        <v>179847826</v>
+        <v>177532609</v>
       </c>
       <c r="G208" s="11">
-        <v>177532609</v>
+        <v>199109756</v>
       </c>
       <c r="H208" s="11">
-        <v>199109756</v>
+        <v>163489796</v>
       </c>
       <c r="I208" s="11">
-        <v>163489796</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>166371429</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>28</v>
       </c>
@@ -4926,22 +4961,22 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
-        <v>410178571</v>
+        <v>435666667</v>
       </c>
       <c r="F209" s="9">
-        <v>435666667</v>
+        <v>375650000</v>
       </c>
       <c r="G209" s="9">
-        <v>375650000</v>
+        <v>432733333</v>
       </c>
       <c r="H209" s="9">
-        <v>432733333</v>
+        <v>879342857</v>
       </c>
       <c r="I209" s="9">
-        <v>879342857</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+        <v>818717391</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>29</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>30</v>
       </c>
@@ -4974,11 +5009,11 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
-        <v>1711000000</v>
-      </c>
-      <c r="F211" s="9">
         <v>2117500000</v>
       </c>
+      <c r="F211" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G211" s="9" t="s">
         <v>26</v>
       </c>
@@ -4989,7 +5024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>31</v>
       </c>
@@ -4998,22 +5033,22 @@
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11">
-        <v>709171975</v>
+        <v>849700508</v>
       </c>
       <c r="F212" s="11">
-        <v>849700508</v>
+        <v>873476510</v>
       </c>
       <c r="G212" s="11">
-        <v>873476510</v>
+        <v>885240000</v>
       </c>
       <c r="H212" s="11">
-        <v>885240000</v>
+        <v>917880795</v>
       </c>
       <c r="I212" s="11">
-        <v>917880795</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+        <v>909032086</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>32</v>
       </c>
@@ -5022,22 +5057,22 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>39384674</v>
+        <v>40335170</v>
       </c>
       <c r="F213" s="9">
-        <v>40335170</v>
+        <v>38507326</v>
       </c>
       <c r="G213" s="9">
-        <v>38507326</v>
+        <v>142811828</v>
       </c>
       <c r="H213" s="9">
-        <v>142811828</v>
+        <v>157091480</v>
       </c>
       <c r="I213" s="9">
-        <v>157091480</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155468147</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>33</v>
       </c>
@@ -5046,22 +5081,22 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
-        <v>195686117</v>
+        <v>224607018</v>
       </c>
       <c r="F214" s="11">
-        <v>224607018</v>
+        <v>225346225</v>
       </c>
       <c r="G214" s="11">
-        <v>225346225</v>
+        <v>264050000</v>
       </c>
       <c r="H214" s="11">
-        <v>264050000</v>
+        <v>364758879</v>
       </c>
       <c r="I214" s="11">
-        <v>364758879</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+        <v>422192434</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>34</v>
       </c>
@@ -5070,22 +5105,22 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>40746</v>
+        <v>42640</v>
       </c>
       <c r="F215" s="9">
-        <v>42640</v>
+        <v>49066</v>
       </c>
       <c r="G215" s="9">
-        <v>49066</v>
+        <v>52451</v>
       </c>
       <c r="H215" s="9">
-        <v>52451</v>
+        <v>61693</v>
       </c>
       <c r="I215" s="9">
-        <v>61693</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60023</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>36</v>
       </c>
@@ -5094,22 +5129,22 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>105377871</v>
+        <v>143451183</v>
       </c>
       <c r="F216" s="11">
-        <v>143451183</v>
+        <v>141615542</v>
       </c>
       <c r="G216" s="11">
-        <v>141615542</v>
+        <v>153370370</v>
       </c>
       <c r="H216" s="11">
-        <v>153370370</v>
+        <v>198254417</v>
       </c>
       <c r="I216" s="11">
-        <v>198254417</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+        <v>326102603</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>37</v>
       </c>
@@ -5118,22 +5153,22 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>105807137</v>
+        <v>118904161</v>
       </c>
       <c r="F217" s="9">
-        <v>118904161</v>
+        <v>128200577</v>
       </c>
       <c r="G217" s="9">
-        <v>128200577</v>
+        <v>136454686</v>
       </c>
       <c r="H217" s="9">
-        <v>136454686</v>
+        <v>138449757</v>
       </c>
       <c r="I217" s="9">
-        <v>138449757</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+        <v>151857823</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>38</v>
       </c>
@@ -5142,22 +5177,22 @@
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
-        <v>270712785</v>
+        <v>312453978</v>
       </c>
       <c r="F218" s="11">
-        <v>312453978</v>
+        <v>413478799</v>
       </c>
       <c r="G218" s="11">
-        <v>413478799</v>
+        <v>427785461</v>
       </c>
       <c r="H218" s="11">
-        <v>427785461</v>
+        <v>463600701</v>
       </c>
       <c r="I218" s="11">
-        <v>463600701</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+        <v>518567455</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5167,7 +5202,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -5177,7 +5212,7 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5187,7 +5222,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B222" s="7" t="s">
         <v>52</v>
       </c>
@@ -5209,7 +5244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5219,7 +5254,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>24</v>
       </c>
@@ -5236,14 +5271,14 @@
       <c r="G224" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H224" s="9" t="s">
-        <v>26</v>
+      <c r="H224" s="9">
+        <v>746090909</v>
       </c>
       <c r="I224" s="9">
-        <v>746090909</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+        <v>766031250</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>27</v>
       </c>
@@ -5252,22 +5287,22 @@
       </c>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
-        <v>180769784</v>
+        <v>192906542</v>
       </c>
       <c r="F225" s="11">
-        <v>192906542</v>
+        <v>179928571</v>
       </c>
       <c r="G225" s="11">
-        <v>179928571</v>
+        <v>167186907</v>
       </c>
       <c r="H225" s="11">
-        <v>167186907</v>
+        <v>164034847</v>
       </c>
       <c r="I225" s="11">
-        <v>164034847</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+        <v>163743468</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
         <v>28</v>
       </c>
@@ -5276,22 +5311,22 @@
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9">
-        <v>400464435</v>
+        <v>421882353</v>
       </c>
       <c r="F226" s="9">
-        <v>421882353</v>
+        <v>424548387</v>
       </c>
       <c r="G226" s="9">
-        <v>424548387</v>
-      </c>
-      <c r="H226" s="9">
         <v>179000000</v>
       </c>
-      <c r="I226" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="9">
+        <v>749714286</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>29</v>
       </c>
@@ -5315,7 +5350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
         <v>30</v>
       </c>
@@ -5323,8 +5358,8 @@
         <v>25</v>
       </c>
       <c r="D228" s="9"/>
-      <c r="E228" s="9">
-        <v>2117500000</v>
+      <c r="E228" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>26</v>
@@ -5339,7 +5374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
         <v>31</v>
       </c>
@@ -5348,22 +5383,22 @@
       </c>
       <c r="D229" s="11"/>
       <c r="E229" s="11">
-        <v>460450000</v>
+        <v>706957576</v>
       </c>
       <c r="F229" s="11">
-        <v>706957576</v>
+        <v>564488506</v>
       </c>
       <c r="G229" s="11">
-        <v>564488506</v>
+        <v>590325967</v>
       </c>
       <c r="H229" s="11">
-        <v>590325967</v>
+        <v>564241026</v>
       </c>
       <c r="I229" s="11">
-        <v>564241026</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+        <v>456303797</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
         <v>32</v>
       </c>
@@ -5372,22 +5407,22 @@
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9">
-        <v>40164852</v>
+        <v>40750877</v>
       </c>
       <c r="F230" s="9">
-        <v>40750877</v>
+        <v>28000000</v>
       </c>
       <c r="G230" s="9">
-        <v>28000000</v>
+        <v>157203240</v>
       </c>
       <c r="H230" s="9">
-        <v>157203240</v>
+        <v>156246080</v>
       </c>
       <c r="I230" s="9">
-        <v>156246080</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155400000</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>33</v>
       </c>
@@ -5396,22 +5431,22 @@
       </c>
       <c r="D231" s="11"/>
       <c r="E231" s="11">
-        <v>230250000</v>
-      </c>
-      <c r="F231" s="11">
         <v>190250000</v>
       </c>
-      <c r="G231" s="11" t="s">
-        <v>26</v>
+      <c r="F231" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="11">
+        <v>311750000</v>
       </c>
       <c r="H231" s="11">
-        <v>311750000</v>
+        <v>437567568</v>
       </c>
       <c r="I231" s="11">
-        <v>437567568</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+        <v>445720000</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="8" t="s">
         <v>34</v>
       </c>
@@ -5420,22 +5455,22 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9">
-        <v>33243</v>
+        <v>36350</v>
       </c>
       <c r="F232" s="9">
-        <v>36350</v>
+        <v>38025</v>
       </c>
       <c r="G232" s="9">
-        <v>38025</v>
+        <v>40755</v>
       </c>
       <c r="H232" s="9">
-        <v>40755</v>
+        <v>42372</v>
       </c>
       <c r="I232" s="9">
-        <v>42372</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48838</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>36</v>
       </c>
@@ -5444,22 +5479,22 @@
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="11">
-        <v>146000000</v>
+        <v>147589041</v>
       </c>
       <c r="F233" s="11">
-        <v>147589041</v>
+        <v>141108939</v>
       </c>
       <c r="G233" s="11">
-        <v>141108939</v>
+        <v>164487768</v>
       </c>
       <c r="H233" s="11">
-        <v>164487768</v>
+        <v>175085459</v>
       </c>
       <c r="I233" s="11">
-        <v>175085459</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+        <v>435785292</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="8" t="s">
         <v>37</v>
       </c>
@@ -5468,22 +5503,22 @@
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9">
-        <v>111607021</v>
+        <v>119042553</v>
       </c>
       <c r="F234" s="9">
-        <v>119042553</v>
+        <v>114636364</v>
       </c>
       <c r="G234" s="9">
-        <v>114636364</v>
+        <v>138121987</v>
       </c>
       <c r="H234" s="9">
-        <v>138121987</v>
+        <v>138245810</v>
       </c>
       <c r="I234" s="9">
-        <v>138245810</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179608259</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
         <v>38</v>
       </c>
@@ -5492,22 +5527,22 @@
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11">
-        <v>420698885</v>
+        <v>454967427</v>
       </c>
       <c r="F235" s="11">
-        <v>454967427</v>
+        <v>411507143</v>
       </c>
       <c r="G235" s="11">
-        <v>411507143</v>
+        <v>521615385</v>
       </c>
       <c r="H235" s="11">
-        <v>521615385</v>
+        <v>526775000</v>
       </c>
       <c r="I235" s="11">
-        <v>526775000</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+        <v>803035928</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5517,7 +5552,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -5527,7 +5562,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5537,7 +5572,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B239" s="7" t="s">
         <v>53</v>
       </c>
@@ -5559,7 +5594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5569,7 +5604,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>54</v>
       </c>
@@ -5591,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>55</v>
       </c>
@@ -5613,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>56</v>
       </c>
@@ -5635,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>57</v>
       </c>
@@ -5657,95 +5692,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
-        <v>12301</v>
+        <v>41581</v>
       </c>
       <c r="F245" s="9">
-        <v>41581</v>
+        <v>11233</v>
       </c>
       <c r="G245" s="9">
-        <v>11233</v>
+        <v>20469</v>
       </c>
       <c r="H245" s="9">
-        <v>20469</v>
+        <v>23919</v>
       </c>
       <c r="I245" s="9">
-        <v>23919</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29355</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
-        <v>5489</v>
+        <v>7026</v>
       </c>
       <c r="F246" s="11">
-        <v>7026</v>
+        <v>13826</v>
       </c>
       <c r="G246" s="11">
-        <v>13826</v>
+        <v>6335</v>
       </c>
       <c r="H246" s="11">
-        <v>6335</v>
+        <v>9011</v>
       </c>
       <c r="I246" s="11">
-        <v>9011</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
-        <v>44536</v>
+        <v>43361</v>
       </c>
       <c r="F247" s="9">
-        <v>43361</v>
+        <v>44515</v>
       </c>
       <c r="G247" s="9">
-        <v>44515</v>
+        <v>47856</v>
       </c>
       <c r="H247" s="9">
-        <v>47856</v>
+        <v>47888</v>
       </c>
       <c r="I247" s="9">
-        <v>47888</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46951</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11">
-        <v>75009</v>
+        <v>99267</v>
       </c>
       <c r="F248" s="11">
-        <v>99267</v>
+        <v>94672</v>
       </c>
       <c r="G248" s="11">
-        <v>94672</v>
+        <v>121932</v>
       </c>
       <c r="H248" s="11">
-        <v>121932</v>
+        <v>137828</v>
       </c>
       <c r="I248" s="11">
-        <v>137828</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131168</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="8" t="s">
         <v>62</v>
       </c>
@@ -5767,51 +5802,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B250" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11">
-        <v>12827</v>
+        <v>11209</v>
       </c>
       <c r="F250" s="11">
-        <v>11209</v>
+        <v>22630</v>
       </c>
       <c r="G250" s="11">
-        <v>22630</v>
+        <v>11468</v>
       </c>
       <c r="H250" s="11">
-        <v>11468</v>
+        <v>23036</v>
       </c>
       <c r="I250" s="11">
-        <v>23036</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22119</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B251" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15">
-        <v>150162</v>
+        <v>202444</v>
       </c>
       <c r="F251" s="15">
-        <v>202444</v>
+        <v>186876</v>
       </c>
       <c r="G251" s="15">
-        <v>186876</v>
+        <v>208060</v>
       </c>
       <c r="H251" s="15">
-        <v>208060</v>
+        <v>241682</v>
       </c>
       <c r="I251" s="15">
-        <v>241682</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+        <v>238736</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -5821,7 +5856,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -5831,7 +5866,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -5841,7 +5876,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B255" s="7" t="s">
         <v>64</v>
       </c>
@@ -5853,7 +5888,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -5863,7 +5898,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B257" s="8" t="s">
         <v>65</v>
       </c>
@@ -5877,7 +5912,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B258" s="10" t="s">
         <v>67</v>
       </c>
@@ -5888,7 +5923,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B259" s="8" t="s">
         <v>69</v>
       </c>
@@ -5899,7 +5934,7 @@
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B260" s="10" t="s">
         <v>71</v>
       </c>
@@ -5910,7 +5945,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B261" s="8" t="s">
         <v>73</v>
       </c>
@@ -5921,7 +5956,7 @@
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B262" s="10" t="s">
         <v>75</v>
       </c>
@@ -5932,7 +5967,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B263" s="8" t="s">
         <v>77</v>
       </c>
@@ -5943,7 +5978,7 @@
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B264" s="10" t="s">
         <v>79</v>
       </c>
@@ -5954,7 +5989,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B265" s="8" t="s">
         <v>81</v>
       </c>
@@ -5965,7 +6000,7 @@
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B266" s="10" t="s">
         <v>83</v>
       </c>
@@ -5976,7 +6011,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B267" s="8" t="s">
         <v>85</v>
       </c>
@@ -5987,7 +6022,7 @@
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B268" s="10" t="s">
         <v>71</v>
       </c>

--- a/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghesalem/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F4EBB-217C-48B9-A033-872447DE7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA04C112-67F6-4129-B73E-75B386E5A718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -739,16 +754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I268"/>
+  <dimension ref="B1:N268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +772,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,8 +789,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -781,8 +806,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -791,8 +821,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -803,8 +838,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -815,8 +855,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -825,8 +870,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -847,8 +897,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -857,142 +922,237 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>449772</v>
+      </c>
+      <c r="F10" s="9">
+        <v>546660</v>
+      </c>
+      <c r="G10" s="9">
+        <v>719187</v>
+      </c>
+      <c r="H10" s="9">
+        <v>595925</v>
+      </c>
+      <c r="I10" s="9">
+        <v>794621</v>
+      </c>
+      <c r="J10" s="9">
         <v>1066500</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>971420</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1277603</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1600096</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2021584</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>87213</v>
+      </c>
+      <c r="F11" s="11">
+        <v>78924</v>
+      </c>
+      <c r="G11" s="11">
+        <v>100172</v>
+      </c>
+      <c r="H11" s="11">
+        <v>115614</v>
+      </c>
+      <c r="I11" s="11">
+        <v>132680</v>
+      </c>
+      <c r="J11" s="11">
         <v>173994</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>189903</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>243351</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>275936</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>266969</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>120810</v>
+      </c>
+      <c r="F12" s="9">
+        <v>107110</v>
+      </c>
+      <c r="G12" s="9">
+        <v>127850</v>
+      </c>
+      <c r="H12" s="9">
+        <v>143733</v>
+      </c>
+      <c r="I12" s="9">
+        <v>150162</v>
+      </c>
+      <c r="J12" s="9">
         <v>202444</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>186876</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>208060</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>241682</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>238736</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>657795</v>
+      </c>
+      <c r="F13" s="13">
+        <v>732694</v>
+      </c>
+      <c r="G13" s="13">
+        <v>947209</v>
+      </c>
+      <c r="H13" s="13">
+        <v>855272</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1077463</v>
+      </c>
+      <c r="J13" s="13">
         <v>1442938</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1348199</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1729014</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>2117714</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>2527289</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-8891</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-11562</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-8695</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-11611</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-10000</v>
+      </c>
+      <c r="J14" s="9">
         <v>-12528</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-6933</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-11644</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-11231</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-10263</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>648904</v>
+      </c>
+      <c r="F15" s="13">
+        <v>721132</v>
+      </c>
+      <c r="G15" s="13">
+        <v>938514</v>
+      </c>
+      <c r="H15" s="13">
+        <v>843661</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1067463</v>
+      </c>
+      <c r="J15" s="13">
         <v>1430410</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1341266</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1717370</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2106483</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>2517026</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1011,54 +1171,99 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>-260</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-693</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-925</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-409</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-773</v>
+      </c>
+      <c r="J17" s="11">
         <v>-1134</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-1515</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-601</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-1659</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>-2778</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>648644</v>
+      </c>
+      <c r="F18" s="15">
+        <v>720439</v>
+      </c>
+      <c r="G18" s="15">
+        <v>937589</v>
+      </c>
+      <c r="H18" s="15">
+        <v>843252</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1066690</v>
+      </c>
+      <c r="J18" s="15">
         <v>1429276</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1339751</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1716769</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>2104824</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>2514248</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1066,65 +1271,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>32987</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>28639</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>48464</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>148269</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>116243</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>4806</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-3259</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-11622</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-35848</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-2352</v>
+      </c>
+      <c r="J20" s="9">
         <v>-28639</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-48464</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-148269</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-116243</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-135686</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>653450</v>
+      </c>
+      <c r="F21" s="13">
+        <v>717180</v>
+      </c>
+      <c r="G21" s="13">
+        <v>925967</v>
+      </c>
+      <c r="H21" s="13">
+        <v>840391</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1064338</v>
+      </c>
+      <c r="J21" s="13">
         <v>1400637</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1358126</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1616964</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>2136850</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>2494805</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1143,30 +1393,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>653450</v>
+      </c>
+      <c r="F23" s="13">
+        <v>717180</v>
+      </c>
+      <c r="G23" s="13">
+        <v>925967</v>
+      </c>
+      <c r="H23" s="13">
+        <v>840391</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1064338</v>
+      </c>
+      <c r="J23" s="13">
         <v>1400637</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1358126</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1616964</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>2136850</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2494805</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1175,8 +1455,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1185,8 +1470,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1195,10 +1485,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1217,8 +1512,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1227,318 +1537,518 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11">
+        <v>98</v>
+      </c>
+      <c r="I30" s="11">
         <v>26</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="J30" s="11">
         <v>139</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>107</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>14</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>1054</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>947</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>76</v>
+      </c>
+      <c r="F31" s="9">
+        <v>46</v>
+      </c>
+      <c r="G31" s="9">
+        <v>17</v>
+      </c>
+      <c r="H31" s="9">
+        <v>284</v>
+      </c>
+      <c r="I31" s="9">
+        <v>267</v>
+      </c>
+      <c r="J31" s="9">
         <v>239</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>51</v>
       </c>
-      <c r="G31" s="9">
-        <v>31</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="L31" s="9">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>14</v>
+      </c>
+      <c r="F33" s="9">
+        <v>12</v>
+      </c>
+      <c r="G33" s="9">
+        <v>10</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7</v>
+      </c>
+      <c r="I33" s="9">
+        <v>5</v>
+      </c>
+      <c r="J33" s="9">
         <v>2</v>
       </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>119</v>
+      </c>
+      <c r="F34" s="11">
+        <v>115</v>
+      </c>
+      <c r="G34" s="11">
+        <v>115</v>
+      </c>
+      <c r="H34" s="11">
+        <v>154</v>
+      </c>
+      <c r="I34" s="11">
+        <v>146</v>
+      </c>
+      <c r="J34" s="11">
         <v>160</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>165</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>174</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>181</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>124</v>
+      </c>
+      <c r="F35" s="9">
+        <v>216</v>
+      </c>
+      <c r="G35" s="9">
+        <v>23</v>
+      </c>
+      <c r="H35" s="9">
+        <v>227</v>
+      </c>
+      <c r="I35" s="9">
+        <v>513</v>
+      </c>
+      <c r="J35" s="9">
         <v>643</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>285</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>1</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>679</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>829</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>20</v>
+      </c>
+      <c r="F36" s="11">
+        <v>15</v>
+      </c>
+      <c r="G36" s="11">
+        <v>24</v>
+      </c>
+      <c r="H36" s="11">
+        <v>3</v>
+      </c>
+      <c r="I36" s="11">
+        <v>25</v>
+      </c>
+      <c r="J36" s="11">
         <v>8</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>20</v>
       </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
         <v>8</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>567761</v>
+      </c>
+      <c r="F37" s="9">
+        <v>595258</v>
+      </c>
+      <c r="G37" s="9">
+        <v>570958</v>
+      </c>
+      <c r="H37" s="9">
+        <v>658492</v>
+      </c>
+      <c r="I37" s="9">
+        <v>736616</v>
+      </c>
+      <c r="J37" s="9">
         <v>735744</v>
       </c>
-      <c r="F37" s="9">
+      <c r="K37" s="9">
         <v>814776</v>
       </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9">
         <v>779805</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>812690</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>789652</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>107</v>
+      </c>
+      <c r="F38" s="11">
+        <v>57</v>
+      </c>
+      <c r="G38" s="11">
+        <v>58</v>
+      </c>
+      <c r="H38" s="11">
+        <v>581</v>
+      </c>
+      <c r="I38" s="11">
+        <v>298</v>
+      </c>
+      <c r="J38" s="11">
         <v>1</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>657</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>1790</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>1308</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>1193</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3178</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1785</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1519</v>
+      </c>
+      <c r="I39" s="9">
+        <v>770</v>
+      </c>
+      <c r="J39" s="9">
         <v>1168</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>470</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>11</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>2697</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>1253</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>329</v>
+      </c>
+      <c r="F40" s="11">
+        <v>304</v>
+      </c>
+      <c r="G40" s="11">
+        <v>208</v>
+      </c>
+      <c r="H40" s="11">
+        <v>275</v>
+      </c>
+      <c r="I40" s="11">
+        <v>262</v>
+      </c>
+      <c r="J40" s="11">
         <v>269</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>307</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>280</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>195</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>569743</v>
+      </c>
+      <c r="F41" s="15">
+        <v>599201</v>
+      </c>
+      <c r="G41" s="15">
+        <v>573198</v>
+      </c>
+      <c r="H41" s="15">
+        <v>661640</v>
+      </c>
+      <c r="I41" s="15">
+        <v>738928</v>
+      </c>
+      <c r="J41" s="15">
         <v>738373</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>816838</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>782106</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>818813</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>793985</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1547,8 +2057,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1557,8 +2072,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1567,10 +2087,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1589,8 +2114,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1599,109 +2139,174 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="9">
+        <v>31</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="9">
         <v>-30</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11">
+      <c r="E48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="11">
+        <v>351</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>198</v>
+      </c>
+      <c r="J48" s="11">
         <v>60</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-1</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>1122</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-9</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>297</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
         <v>69</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
         <v>34</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
@@ -1710,207 +2315,342 @@
       <c r="F51" s="9">
         <v>0</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>144</v>
+      </c>
+      <c r="F52" s="11">
+        <v>148</v>
+      </c>
+      <c r="G52" s="11">
+        <v>193</v>
+      </c>
+      <c r="H52" s="11">
+        <v>130</v>
+      </c>
+      <c r="I52" s="11">
+        <v>171</v>
+      </c>
+      <c r="J52" s="11">
         <v>202</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>158</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>157</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>165</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>2280</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1862</v>
+      </c>
+      <c r="G53" s="9">
+        <v>3407</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2572</v>
+      </c>
+      <c r="I53" s="9">
+        <v>2766</v>
+      </c>
+      <c r="J53" s="9">
         <v>3091</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>2446</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>3282</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>3014</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>3043</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>451</v>
+      </c>
+      <c r="F54" s="11">
+        <v>527</v>
+      </c>
+      <c r="G54" s="11">
+        <v>428</v>
+      </c>
+      <c r="H54" s="11">
+        <v>463</v>
+      </c>
+      <c r="I54" s="11">
+        <v>480</v>
+      </c>
+      <c r="J54" s="11">
         <v>582</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>523</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>488</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>564</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>2185245</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2064373</v>
+      </c>
+      <c r="G55" s="9">
+        <v>2503210</v>
+      </c>
+      <c r="H55" s="9">
+        <v>2168606</v>
+      </c>
+      <c r="I55" s="9">
+        <v>2602847</v>
+      </c>
+      <c r="J55" s="9">
         <v>2773518</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>2185967</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>2177507</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>2345717</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>2680026</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>329</v>
+      </c>
+      <c r="F56" s="11">
+        <v>413</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1148</v>
+      </c>
+      <c r="H56" s="11">
+        <v>212</v>
+      </c>
+      <c r="I56" s="11">
+        <v>182</v>
+      </c>
+      <c r="J56" s="11">
         <v>1332</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>1622</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>85</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>42</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>1052</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>3162</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-221</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1220</v>
+      </c>
+      <c r="H57" s="9">
+        <v>389</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1715</v>
+      </c>
+      <c r="J57" s="9">
         <v>888</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>927</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>3977</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>-1</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>1324</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>599</v>
+      </c>
+      <c r="F58" s="11">
+        <v>532</v>
+      </c>
+      <c r="G58" s="11">
+        <v>525</v>
+      </c>
+      <c r="H58" s="11">
+        <v>490</v>
+      </c>
+      <c r="I58" s="11">
+        <v>578</v>
+      </c>
+      <c r="J58" s="11">
         <v>679</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>539</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>479</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>579</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>2192210</v>
+      </c>
+      <c r="F59" s="15">
+        <v>2067634</v>
+      </c>
+      <c r="G59" s="15">
+        <v>2510779</v>
+      </c>
+      <c r="H59" s="15">
+        <v>2172862</v>
+      </c>
+      <c r="I59" s="15">
+        <v>2608937</v>
+      </c>
+      <c r="J59" s="15">
         <v>2780421</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>2192181</v>
       </c>
-      <c r="G59" s="15">
+      <c r="L59" s="15">
         <v>2187097</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>2350105</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>2686986</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1919,8 +2659,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1929,8 +2674,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1939,10 +2689,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1961,8 +2716,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1971,318 +2741,518 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="9">
         <v>26</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
+      <c r="E66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="11">
+        <v>300</v>
+      </c>
+      <c r="H66" s="11">
+        <v>72</v>
+      </c>
+      <c r="I66" s="11">
+        <v>85</v>
+      </c>
+      <c r="J66" s="11">
         <v>92</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>92</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>82</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>98</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F67" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G67" s="9">
         <v>30</v>
       </c>
       <c r="H67" s="9">
+        <v>17</v>
+      </c>
+      <c r="I67" s="9">
+        <v>28</v>
+      </c>
+      <c r="J67" s="9">
+        <v>24</v>
+      </c>
+      <c r="K67" s="9">
+        <v>20</v>
+      </c>
+      <c r="L67" s="9">
+        <v>30</v>
+      </c>
+      <c r="M67" s="9">
         <v>35</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
         <v>2</v>
       </c>
       <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>3</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2</v>
+      </c>
+      <c r="I69" s="9">
+        <v>3</v>
+      </c>
+      <c r="J69" s="9">
+        <v>2</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>148</v>
+      </c>
+      <c r="F70" s="11">
+        <v>148</v>
+      </c>
+      <c r="G70" s="11">
+        <v>154</v>
+      </c>
+      <c r="H70" s="11">
+        <v>138</v>
+      </c>
+      <c r="I70" s="11">
+        <v>157</v>
+      </c>
+      <c r="J70" s="11">
         <v>197</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>149</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>150</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>151</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>2188</v>
+      </c>
+      <c r="F71" s="9">
+        <v>2055</v>
+      </c>
+      <c r="G71" s="9">
+        <v>3203</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2286</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2636</v>
+      </c>
+      <c r="J71" s="9">
         <v>3449</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>2730</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>2604</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>2864</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>3422</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>456</v>
+      </c>
+      <c r="F72" s="11">
+        <v>518</v>
+      </c>
+      <c r="G72" s="11">
+        <v>449</v>
+      </c>
+      <c r="H72" s="11">
+        <v>441</v>
+      </c>
+      <c r="I72" s="11">
+        <v>497</v>
+      </c>
+      <c r="J72" s="11">
         <v>570</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>543</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>480</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>535</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>608</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>2157748</v>
+      </c>
+      <c r="F73" s="9">
+        <v>2088673</v>
+      </c>
+      <c r="G73" s="9">
+        <v>2415676</v>
+      </c>
+      <c r="H73" s="9">
+        <v>2090482</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2603719</v>
+      </c>
+      <c r="J73" s="9">
         <v>2694486</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>2220938</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>2144622</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>2368755</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>2696196</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>379</v>
+      </c>
+      <c r="F74" s="11">
+        <v>412</v>
+      </c>
+      <c r="G74" s="11">
+        <v>625</v>
+      </c>
+      <c r="H74" s="11">
+        <v>495</v>
+      </c>
+      <c r="I74" s="11">
+        <v>479</v>
+      </c>
+      <c r="J74" s="11">
         <v>676</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>489</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>567</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>566</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>653</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>1177</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1172</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1486</v>
+      </c>
+      <c r="H75" s="9">
+        <v>1138</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1317</v>
+      </c>
+      <c r="J75" s="9">
         <v>1586</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>1386</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>1291</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>1443</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>1681</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>624</v>
+      </c>
+      <c r="F76" s="11">
+        <v>628</v>
+      </c>
+      <c r="G76" s="11">
+        <v>411</v>
+      </c>
+      <c r="H76" s="11">
+        <v>503</v>
+      </c>
+      <c r="I76" s="11">
+        <v>571</v>
+      </c>
+      <c r="J76" s="11">
         <v>641</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>566</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>564</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>571</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>719</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>2162752</v>
+      </c>
+      <c r="F77" s="15">
+        <v>2093637</v>
+      </c>
+      <c r="G77" s="15">
+        <v>2422337</v>
+      </c>
+      <c r="H77" s="15">
+        <v>2095574</v>
+      </c>
+      <c r="I77" s="15">
+        <v>2609492</v>
+      </c>
+      <c r="J77" s="15">
         <v>2701723</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>2226913</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>2150390</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>2375018</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>2703643</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2291,8 +3261,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2301,8 +3276,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2311,10 +3291,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2333,8 +3318,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2343,318 +3343,518 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="9">
+        <v>88</v>
+      </c>
+      <c r="N83" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="11">
+        <v>98</v>
+      </c>
+      <c r="H84" s="11">
         <v>26</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="9">
-        <v>88</v>
-      </c>
-      <c r="I83" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11">
+      <c r="I84" s="11">
+        <v>139</v>
+      </c>
+      <c r="J84" s="11">
         <v>107</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>14</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>1054</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>947</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>842</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>46</v>
+      </c>
+      <c r="F85" s="9">
+        <v>17</v>
+      </c>
+      <c r="G85" s="9">
+        <v>284</v>
+      </c>
+      <c r="H85" s="9">
+        <v>267</v>
+      </c>
+      <c r="I85" s="9">
+        <v>239</v>
+      </c>
+      <c r="J85" s="9">
         <v>51</v>
       </c>
-      <c r="F85" s="9">
-        <v>31</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9">
         <v>1</v>
       </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F87" s="9">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G87" s="9">
+        <v>7</v>
+      </c>
+      <c r="H87" s="9">
+        <v>5</v>
+      </c>
+      <c r="I87" s="9">
+        <v>2</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <v>0</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>115</v>
+      </c>
+      <c r="F88" s="11">
+        <v>115</v>
+      </c>
+      <c r="G88" s="11">
+        <v>154</v>
+      </c>
+      <c r="H88" s="11">
+        <v>146</v>
+      </c>
+      <c r="I88" s="11">
+        <v>160</v>
+      </c>
+      <c r="J88" s="11">
         <v>165</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>174</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>181</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>195</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>216</v>
+      </c>
+      <c r="F89" s="9">
+        <v>23</v>
+      </c>
+      <c r="G89" s="9">
+        <v>227</v>
+      </c>
+      <c r="H89" s="9">
+        <v>513</v>
+      </c>
+      <c r="I89" s="9">
+        <v>643</v>
+      </c>
+      <c r="J89" s="9">
         <v>285</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>1</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>679</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>829</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>15</v>
+      </c>
+      <c r="F90" s="11">
+        <v>24</v>
+      </c>
+      <c r="G90" s="11">
+        <v>3</v>
+      </c>
+      <c r="H90" s="11">
+        <v>25</v>
+      </c>
+      <c r="I90" s="11">
+        <v>8</v>
+      </c>
+      <c r="J90" s="11">
         <v>20</v>
       </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
         <v>8</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>37</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>595258</v>
+      </c>
+      <c r="F91" s="9">
+        <v>570958</v>
+      </c>
+      <c r="G91" s="9">
+        <v>658492</v>
+      </c>
+      <c r="H91" s="9">
+        <v>736616</v>
+      </c>
+      <c r="I91" s="9">
+        <v>735744</v>
+      </c>
+      <c r="J91" s="9">
         <v>814776</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>779805</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>812690</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>789652</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>773482</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>57</v>
+      </c>
+      <c r="F92" s="11">
+        <v>58</v>
+      </c>
+      <c r="G92" s="11">
+        <v>581</v>
+      </c>
+      <c r="H92" s="11">
+        <v>298</v>
+      </c>
+      <c r="I92" s="11">
+        <v>1</v>
+      </c>
+      <c r="J92" s="11">
         <v>657</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>1790</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>1308</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>784</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>1183</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>3178</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1785</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1519</v>
+      </c>
+      <c r="H93" s="9">
+        <v>770</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1168</v>
+      </c>
+      <c r="J93" s="9">
         <v>470</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>11</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>2697</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>1253</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>896</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>304</v>
+      </c>
+      <c r="F94" s="11">
+        <v>208</v>
+      </c>
+      <c r="G94" s="11">
+        <v>275</v>
+      </c>
+      <c r="H94" s="11">
+        <v>262</v>
+      </c>
+      <c r="I94" s="11">
+        <v>269</v>
+      </c>
+      <c r="J94" s="11">
         <v>307</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>280</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>195</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>200</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>599201</v>
+      </c>
+      <c r="F95" s="15">
+        <v>573198</v>
+      </c>
+      <c r="G95" s="15">
+        <v>661640</v>
+      </c>
+      <c r="H95" s="15">
+        <v>738928</v>
+      </c>
+      <c r="I95" s="15">
+        <v>738373</v>
+      </c>
+      <c r="J95" s="15">
         <v>816838</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>782106</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>818813</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>793985</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>777328</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2663,8 +3863,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2673,8 +3878,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2683,10 +3893,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2705,8 +3920,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2715,318 +3945,518 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9">
+        <v>31</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9">
         <v>65656</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
+      <c r="E102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="11">
+        <v>14432</v>
+      </c>
+      <c r="I102" s="11">
+        <v>3862</v>
+      </c>
+      <c r="J102" s="11">
         <v>25127</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>20641</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>2519</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>176215</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>155341</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>12164</v>
+      </c>
+      <c r="F103" s="9">
+        <v>7276</v>
+      </c>
+      <c r="G103" s="9">
+        <v>2752</v>
+      </c>
+      <c r="H103" s="9">
+        <v>113942</v>
+      </c>
+      <c r="I103" s="9">
+        <v>107196</v>
+      </c>
+      <c r="J103" s="9">
         <v>95711</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>21516</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>13161</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>179</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>27354</v>
+      </c>
+      <c r="F105" s="9">
+        <v>23112</v>
+      </c>
+      <c r="G105" s="9">
+        <v>19149</v>
+      </c>
+      <c r="H105" s="9">
+        <v>13877</v>
+      </c>
+      <c r="I105" s="9">
+        <v>9368</v>
+      </c>
+      <c r="J105" s="9">
         <v>4235</v>
       </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K105" s="9">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>26573</v>
+      </c>
+      <c r="F106" s="11">
+        <v>29445</v>
+      </c>
+      <c r="G106" s="11">
+        <v>38016</v>
+      </c>
+      <c r="H106" s="11">
+        <v>66730</v>
+      </c>
+      <c r="I106" s="11">
+        <v>64405</v>
+      </c>
+      <c r="J106" s="11">
         <v>73672</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>116648</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>98221</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>106849</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>110027</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>3874</v>
+      </c>
+      <c r="F107" s="9">
+        <v>6497</v>
+      </c>
+      <c r="G107" s="9">
+        <v>802</v>
+      </c>
+      <c r="H107" s="9">
+        <v>8043</v>
+      </c>
+      <c r="I107" s="9">
+        <v>19939</v>
+      </c>
+      <c r="J107" s="9">
         <v>25826</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>11614</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>28</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>106741</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>129528</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>2380</v>
+      </c>
+      <c r="F108" s="11">
+        <v>2127</v>
+      </c>
+      <c r="G108" s="11">
+        <v>4001</v>
+      </c>
+      <c r="H108" s="11">
+        <v>469</v>
+      </c>
+      <c r="I108" s="11">
+        <v>4158</v>
+      </c>
+      <c r="J108" s="11">
         <v>1842</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>3805</v>
       </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="L108" s="11">
+        <v>0</v>
+      </c>
+      <c r="M108" s="11">
         <v>2494</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>16190</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>9060</v>
+      </c>
+      <c r="F109" s="9">
+        <v>10492</v>
+      </c>
+      <c r="G109" s="9">
+        <v>12775</v>
+      </c>
+      <c r="H109" s="9">
+        <v>18812</v>
+      </c>
+      <c r="I109" s="9">
+        <v>23457</v>
+      </c>
+      <c r="J109" s="9">
         <v>24458</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>29617</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>29652</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>33121</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>33459</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>7887</v>
+      </c>
+      <c r="F110" s="11">
+        <v>4279</v>
+      </c>
+      <c r="G110" s="11">
+        <v>5951</v>
+      </c>
+      <c r="H110" s="11">
+        <v>47874</v>
+      </c>
+      <c r="I110" s="11">
+        <v>26868</v>
+      </c>
+      <c r="J110" s="11">
         <v>146</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>96966</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>252585</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>215150</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>137267</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>47062</v>
+      </c>
+      <c r="F111" s="9">
+        <v>218172</v>
+      </c>
+      <c r="G111" s="9">
+        <v>122569</v>
+      </c>
+      <c r="H111" s="9">
+        <v>85073</v>
+      </c>
+      <c r="I111" s="9">
+        <v>66280</v>
+      </c>
+      <c r="J111" s="9">
         <v>130357</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>55950</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>1261</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>372515</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>173222</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>58332</v>
+      </c>
+      <c r="F112" s="11">
+        <v>68538</v>
+      </c>
+      <c r="G112" s="11">
+        <v>72603</v>
+      </c>
+      <c r="H112" s="11">
+        <v>79592</v>
+      </c>
+      <c r="I112" s="11">
+        <v>124019</v>
+      </c>
+      <c r="J112" s="11">
         <v>113168</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>139675</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>115222</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>101715</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>105355</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
+        <v>194686</v>
+      </c>
+      <c r="F113" s="15">
+        <v>369938</v>
+      </c>
+      <c r="G113" s="15">
+        <v>278618</v>
+      </c>
+      <c r="H113" s="15">
+        <v>448844</v>
+      </c>
+      <c r="I113" s="15">
+        <v>449552</v>
+      </c>
+      <c r="J113" s="15">
         <v>494542</v>
       </c>
-      <c r="F113" s="15">
+      <c r="K113" s="15">
         <v>496432</v>
       </c>
-      <c r="G113" s="15">
+      <c r="L113" s="15">
         <v>512649</v>
       </c>
-      <c r="H113" s="15">
+      <c r="M113" s="15">
         <v>1114979</v>
       </c>
-      <c r="I113" s="15">
+      <c r="N113" s="15">
         <v>926241</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3035,8 +4465,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3045,8 +4480,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3055,10 +4495,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3077,8 +4522,23 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3087,109 +4547,174 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="9">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9">
         <v>-36285</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
+      <c r="E120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="11">
+        <v>59697</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11">
+        <v>36362</v>
+      </c>
+      <c r="J120" s="11">
         <v>12060</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>-1789</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>190023</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>-4852</v>
       </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>0</v>
+      </c>
+      <c r="F121" s="9">
+        <v>0</v>
+      </c>
+      <c r="G121" s="9">
+        <v>121156</v>
+      </c>
+      <c r="H121" s="9">
+        <v>0</v>
+      </c>
+      <c r="I121" s="9">
+        <v>0</v>
+      </c>
+      <c r="J121" s="9">
         <v>29170</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>-842</v>
       </c>
-      <c r="G121" s="9">
-        <v>0</v>
-      </c>
-      <c r="H121" s="9">
+      <c r="L121" s="9">
+        <v>0</v>
+      </c>
+      <c r="M121" s="9">
         <v>30794</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>47961</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
@@ -3198,207 +4723,342 @@
       <c r="F123" s="9">
         <v>0</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G123" s="9">
+        <v>0</v>
+      </c>
+      <c r="H123" s="9">
+        <v>0</v>
+      </c>
+      <c r="I123" s="9">
+        <v>0</v>
+      </c>
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9">
+        <v>0</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>76260</v>
+      </c>
+      <c r="F124" s="11">
+        <v>102103</v>
+      </c>
+      <c r="G124" s="11">
+        <v>138470</v>
+      </c>
+      <c r="H124" s="11">
+        <v>106728</v>
+      </c>
+      <c r="I124" s="11">
+        <v>120607</v>
+      </c>
+      <c r="J124" s="11">
         <v>210367</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>111721</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>141414</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>141778</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>168106</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>68671</v>
+      </c>
+      <c r="F125" s="9">
+        <v>62806</v>
+      </c>
+      <c r="G125" s="9">
+        <v>121397</v>
+      </c>
+      <c r="H125" s="9">
+        <v>98789</v>
+      </c>
+      <c r="I125" s="9">
+        <v>109705</v>
+      </c>
+      <c r="J125" s="9">
         <v>124904</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>93539</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>478595</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>472697</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>472414</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>50382</v>
+      </c>
+      <c r="F126" s="11">
+        <v>77598</v>
+      </c>
+      <c r="G126" s="11">
+        <v>77266</v>
+      </c>
+      <c r="H126" s="11">
+        <v>64002</v>
+      </c>
+      <c r="I126" s="11">
+        <v>94940</v>
+      </c>
+      <c r="J126" s="11">
         <v>129989</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>118558</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>129238</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>208842</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>251646</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>52085</v>
+      </c>
+      <c r="F127" s="9">
+        <v>65199</v>
+      </c>
+      <c r="G127" s="9">
+        <v>88889</v>
+      </c>
+      <c r="H127" s="9">
+        <v>84622</v>
+      </c>
+      <c r="I127" s="9">
+        <v>107092</v>
+      </c>
+      <c r="J127" s="9">
         <v>120051</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>109008</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>115956</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>146473</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>166150</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>26329</v>
+      </c>
+      <c r="F128" s="11">
+        <v>38316</v>
+      </c>
+      <c r="G128" s="11">
+        <v>101398</v>
+      </c>
+      <c r="H128" s="11">
+        <v>26315</v>
+      </c>
+      <c r="I128" s="11">
+        <v>23754</v>
+      </c>
+      <c r="J128" s="11">
         <v>193793</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>224869</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>49526</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>34329</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>591212</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>247508</v>
+      </c>
+      <c r="F129" s="9">
+        <v>-15123</v>
+      </c>
+      <c r="G129" s="9">
+        <v>50061</v>
+      </c>
+      <c r="H129" s="9">
+        <v>45703</v>
+      </c>
+      <c r="I129" s="9">
+        <v>203425</v>
+      </c>
+      <c r="J129" s="9">
         <v>114175</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>122997</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>547417</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>490</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>242980</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>103789</v>
+      </c>
+      <c r="F130" s="11">
+        <v>124441</v>
+      </c>
+      <c r="G130" s="11">
+        <v>131079</v>
+      </c>
+      <c r="H130" s="11">
+        <v>170474</v>
+      </c>
+      <c r="I130" s="11">
+        <v>143726</v>
+      </c>
+      <c r="J130" s="11">
         <v>226790</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>209576</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>227764</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>271771</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>401602</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
+        <v>625024</v>
+      </c>
+      <c r="F131" s="15">
+        <v>455340</v>
+      </c>
+      <c r="G131" s="15">
+        <v>889413</v>
+      </c>
+      <c r="H131" s="15">
+        <v>596633</v>
+      </c>
+      <c r="I131" s="15">
+        <v>839611</v>
+      </c>
+      <c r="J131" s="15">
         <v>1161299</v>
       </c>
-      <c r="F131" s="15">
+      <c r="K131" s="15">
         <v>987637</v>
       </c>
-      <c r="G131" s="15">
+      <c r="L131" s="15">
         <v>1879933</v>
       </c>
-      <c r="H131" s="15">
+      <c r="M131" s="15">
         <v>1302322</v>
       </c>
-      <c r="I131" s="15">
+      <c r="N131" s="15">
         <v>2305786</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3407,8 +5067,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3417,8 +5082,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3427,10 +5097,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3449,8 +5124,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3459,318 +5149,518 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I137" s="9">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="9">
         <v>4858</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11">
+      <c r="E138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="11">
+        <v>51520</v>
+      </c>
+      <c r="H138" s="11">
+        <v>10570</v>
+      </c>
+      <c r="I138" s="11">
+        <v>15097</v>
+      </c>
+      <c r="J138" s="11">
         <v>16546</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>16333</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>16327</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>16022</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>17469</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>4888</v>
+      </c>
+      <c r="F139" s="9">
+        <v>4524</v>
+      </c>
+      <c r="G139" s="9">
+        <v>9966</v>
+      </c>
+      <c r="H139" s="9">
+        <v>6746</v>
+      </c>
+      <c r="I139" s="9">
+        <v>11485</v>
+      </c>
+      <c r="J139" s="9">
         <v>10456</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>7513</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>12982</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>30777</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>37661</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>4242</v>
+      </c>
+      <c r="F141" s="9">
+        <v>3963</v>
+      </c>
+      <c r="G141" s="9">
+        <v>5272</v>
+      </c>
+      <c r="H141" s="9">
+        <v>4509</v>
+      </c>
+      <c r="I141" s="9">
+        <v>5133</v>
+      </c>
+      <c r="J141" s="9">
         <v>4235</v>
       </c>
-      <c r="F141" s="9">
-        <v>0</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K141" s="9">
+        <v>0</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>73388</v>
+      </c>
+      <c r="F142" s="11">
+        <v>93532</v>
+      </c>
+      <c r="G142" s="11">
+        <v>109756</v>
+      </c>
+      <c r="H142" s="11">
+        <v>109053</v>
+      </c>
+      <c r="I142" s="11">
+        <v>111340</v>
+      </c>
+      <c r="J142" s="11">
         <v>167391</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>130148</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>132786</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>138600</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>169989</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>66048</v>
+      </c>
+      <c r="F143" s="9">
+        <v>68501</v>
+      </c>
+      <c r="G143" s="9">
+        <v>114156</v>
+      </c>
+      <c r="H143" s="9">
+        <v>86893</v>
+      </c>
+      <c r="I143" s="9">
+        <v>103818</v>
+      </c>
+      <c r="J143" s="9">
         <v>139116</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>105125</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>371882</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>449910</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>532012</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>50635</v>
+      </c>
+      <c r="F144" s="11">
+        <v>75724</v>
+      </c>
+      <c r="G144" s="11">
+        <v>80798</v>
+      </c>
+      <c r="H144" s="11">
+        <v>60313</v>
+      </c>
+      <c r="I144" s="11">
+        <v>97256</v>
+      </c>
+      <c r="J144" s="11">
         <v>128026</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>122363</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>126744</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>195146</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>256693</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>50653</v>
+      </c>
+      <c r="F145" s="9">
+        <v>62916</v>
+      </c>
+      <c r="G145" s="9">
+        <v>82852</v>
+      </c>
+      <c r="H145" s="9">
+        <v>79977</v>
+      </c>
+      <c r="I145" s="9">
+        <v>106091</v>
+      </c>
+      <c r="J145" s="9">
         <v>114892</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>108973</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>112487</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>146135</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>161834</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>29937</v>
+      </c>
+      <c r="F146" s="11">
+        <v>36644</v>
+      </c>
+      <c r="G146" s="11">
+        <v>59475</v>
+      </c>
+      <c r="H146" s="11">
+        <v>47321</v>
+      </c>
+      <c r="I146" s="11">
+        <v>50476</v>
+      </c>
+      <c r="J146" s="11">
         <v>96973</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>69250</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>86961</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>112212</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>212945</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>76398</v>
+      </c>
+      <c r="F147" s="9">
+        <v>80480</v>
+      </c>
+      <c r="G147" s="9">
+        <v>87557</v>
+      </c>
+      <c r="H147" s="9">
+        <v>64496</v>
+      </c>
+      <c r="I147" s="9">
+        <v>139348</v>
+      </c>
+      <c r="J147" s="9">
         <v>188582</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>177686</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>176163</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>199783</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>255273</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>93583</v>
+      </c>
+      <c r="F148" s="11">
+        <v>120376</v>
+      </c>
+      <c r="G148" s="11">
+        <v>117835</v>
+      </c>
+      <c r="H148" s="11">
+        <v>126047</v>
+      </c>
+      <c r="I148" s="11">
+        <v>154577</v>
+      </c>
+      <c r="J148" s="11">
         <v>200283</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>234029</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>241271</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>264716</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>372850</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
+        <v>449772</v>
+      </c>
+      <c r="F149" s="15">
+        <v>546660</v>
+      </c>
+      <c r="G149" s="15">
+        <v>719187</v>
+      </c>
+      <c r="H149" s="15">
+        <v>595925</v>
+      </c>
+      <c r="I149" s="15">
+        <v>794621</v>
+      </c>
+      <c r="J149" s="15">
         <v>1066500</v>
       </c>
-      <c r="F149" s="15">
+      <c r="K149" s="15">
         <v>971420</v>
       </c>
-      <c r="G149" s="15">
+      <c r="L149" s="15">
         <v>1277603</v>
       </c>
-      <c r="H149" s="15">
+      <c r="M149" s="15">
         <v>1553301</v>
       </c>
-      <c r="I149" s="15">
+      <c r="N149" s="15">
         <v>2021584</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3779,8 +5669,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3789,8 +5684,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3799,10 +5699,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3821,8 +5726,23 @@
       <c r="I153" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3831,318 +5751,518 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="9">
+        <v>31</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" s="9">
         <v>65656</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>24513</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11">
+      <c r="E156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="11">
+        <v>14432</v>
+      </c>
+      <c r="H156" s="11">
+        <v>3862</v>
+      </c>
+      <c r="I156" s="11">
+        <v>25127</v>
+      </c>
+      <c r="J156" s="11">
         <v>20641</v>
       </c>
-      <c r="F156" s="11">
+      <c r="K156" s="11">
         <v>2519</v>
       </c>
-      <c r="G156" s="11">
+      <c r="L156" s="11">
         <v>176215</v>
       </c>
-      <c r="H156" s="11">
+      <c r="M156" s="11">
         <v>155341</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>137872</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>7276</v>
+      </c>
+      <c r="F157" s="9">
+        <v>2752</v>
+      </c>
+      <c r="G157" s="9">
+        <v>113942</v>
+      </c>
+      <c r="H157" s="9">
+        <v>107196</v>
+      </c>
+      <c r="I157" s="9">
+        <v>95711</v>
+      </c>
+      <c r="J157" s="9">
         <v>21516</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>13161</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>179</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>196</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>10496</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>0</v>
+        <v>23112</v>
       </c>
       <c r="F159" s="9">
-        <v>0</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19149</v>
+      </c>
+      <c r="G159" s="9">
+        <v>13877</v>
+      </c>
+      <c r="H159" s="9">
+        <v>9368</v>
+      </c>
+      <c r="I159" s="9">
+        <v>4235</v>
+      </c>
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>0</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N159" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
+        <v>29445</v>
+      </c>
+      <c r="F160" s="11">
+        <v>38016</v>
+      </c>
+      <c r="G160" s="11">
+        <v>66730</v>
+      </c>
+      <c r="H160" s="11">
+        <v>64405</v>
+      </c>
+      <c r="I160" s="11">
+        <v>73672</v>
+      </c>
+      <c r="J160" s="11">
         <v>116648</v>
       </c>
-      <c r="F160" s="11">
+      <c r="K160" s="11">
         <v>98221</v>
       </c>
-      <c r="G160" s="11">
+      <c r="L160" s="11">
         <v>106849</v>
       </c>
-      <c r="H160" s="11">
+      <c r="M160" s="11">
         <v>110027</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>108144</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>6497</v>
+      </c>
+      <c r="F161" s="9">
+        <v>802</v>
+      </c>
+      <c r="G161" s="9">
+        <v>8043</v>
+      </c>
+      <c r="H161" s="9">
+        <v>19939</v>
+      </c>
+      <c r="I161" s="9">
+        <v>25826</v>
+      </c>
+      <c r="J161" s="9">
         <v>11614</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>28</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>106741</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>129528</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>69930</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>2127</v>
+      </c>
+      <c r="F162" s="11">
+        <v>4001</v>
+      </c>
+      <c r="G162" s="11">
+        <v>469</v>
+      </c>
+      <c r="H162" s="11">
+        <v>4158</v>
+      </c>
+      <c r="I162" s="11">
+        <v>1842</v>
+      </c>
+      <c r="J162" s="11">
         <v>3805</v>
       </c>
-      <c r="F162" s="11">
-        <v>0</v>
-      </c>
-      <c r="G162" s="11">
+      <c r="K162" s="11">
+        <v>0</v>
+      </c>
+      <c r="L162" s="11">
         <v>2494</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>16190</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>11143</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>10492</v>
+      </c>
+      <c r="F163" s="9">
+        <v>12775</v>
+      </c>
+      <c r="G163" s="9">
+        <v>18812</v>
+      </c>
+      <c r="H163" s="9">
+        <v>23457</v>
+      </c>
+      <c r="I163" s="9">
+        <v>24458</v>
+      </c>
+      <c r="J163" s="9">
         <v>29617</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>29652</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>33121</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>33459</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>37775</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>4279</v>
+      </c>
+      <c r="F164" s="11">
+        <v>5951</v>
+      </c>
+      <c r="G164" s="11">
+        <v>47874</v>
+      </c>
+      <c r="H164" s="11">
+        <v>26868</v>
+      </c>
+      <c r="I164" s="11">
+        <v>146</v>
+      </c>
+      <c r="J164" s="11">
         <v>96966</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>252585</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>215150</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>137267</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>515534</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>218172</v>
+      </c>
+      <c r="F165" s="9">
+        <v>122569</v>
+      </c>
+      <c r="G165" s="9">
+        <v>85073</v>
+      </c>
+      <c r="H165" s="9">
+        <v>66280</v>
+      </c>
+      <c r="I165" s="9">
+        <v>130357</v>
+      </c>
+      <c r="J165" s="9">
         <v>55950</v>
       </c>
-      <c r="F165" s="9">
+      <c r="K165" s="9">
         <v>1261</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>372515</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>173222</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>160929</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>68538</v>
+      </c>
+      <c r="F166" s="11">
+        <v>72603</v>
+      </c>
+      <c r="G166" s="11">
+        <v>79592</v>
+      </c>
+      <c r="H166" s="11">
+        <v>124019</v>
+      </c>
+      <c r="I166" s="11">
+        <v>113168</v>
+      </c>
+      <c r="J166" s="11">
         <v>139675</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>115222</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>101715</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>105355</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>134107</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>369938</v>
+      </c>
+      <c r="F167" s="15">
+        <v>278618</v>
+      </c>
+      <c r="G167" s="15">
+        <v>448844</v>
+      </c>
+      <c r="H167" s="15">
+        <v>449552</v>
+      </c>
+      <c r="I167" s="15">
+        <v>494542</v>
+      </c>
+      <c r="J167" s="15">
         <v>496432</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>512649</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>1114979</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>926241</v>
       </c>
-      <c r="I167" s="15">
+      <c r="N167" s="15">
         <v>1210443</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4151,8 +6271,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4161,8 +6286,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4171,10 +6301,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4193,8 +6328,23 @@
       <c r="I171" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4203,296 +6353,481 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I173" s="9">
+        <v>31</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="9">
         <v>746090909</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11">
+      <c r="E174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="11">
+        <v>147265306</v>
+      </c>
+      <c r="I174" s="11">
+        <v>148538462</v>
+      </c>
+      <c r="J174" s="11">
         <v>180769784</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>192906542</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>179928571</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>167186907</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>164034847</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
+        <v>160052632</v>
+      </c>
+      <c r="F175" s="9">
+        <v>158173913</v>
+      </c>
+      <c r="G175" s="9">
+        <v>161882353</v>
+      </c>
+      <c r="H175" s="9">
+        <v>401204225</v>
+      </c>
+      <c r="I175" s="9">
+        <v>401483146</v>
+      </c>
+      <c r="J175" s="9">
         <v>400464435</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>421882353</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>424548387</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>179000000</v>
       </c>
-      <c r="I175" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N175" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M176" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N176" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
+        <v>1953857143</v>
+      </c>
+      <c r="F177" s="9">
+        <v>1926000000</v>
+      </c>
+      <c r="G177" s="9">
+        <v>1914900000</v>
+      </c>
+      <c r="H177" s="9">
+        <v>1982428571</v>
+      </c>
+      <c r="I177" s="9">
+        <v>1873600000</v>
+      </c>
+      <c r="J177" s="9">
         <v>2117500000</v>
       </c>
-      <c r="F177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I177" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
+        <v>223302521</v>
+      </c>
+      <c r="F178" s="11">
+        <v>256043478</v>
+      </c>
+      <c r="G178" s="11">
+        <v>330573913</v>
+      </c>
+      <c r="H178" s="11">
+        <v>433311688</v>
+      </c>
+      <c r="I178" s="11">
+        <v>441130137</v>
+      </c>
+      <c r="J178" s="11">
         <v>460450000</v>
       </c>
-      <c r="F178" s="11">
+      <c r="K178" s="11">
         <v>706957576</v>
       </c>
-      <c r="G178" s="11">
+      <c r="L178" s="11">
         <v>564488506</v>
       </c>
-      <c r="H178" s="11">
+      <c r="M178" s="11">
         <v>590325967</v>
       </c>
-      <c r="I178" s="11">
+      <c r="N178" s="11">
         <v>564241026</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>31241935</v>
+      </c>
+      <c r="F179" s="9">
+        <v>30078704</v>
+      </c>
+      <c r="G179" s="9">
+        <v>34869565</v>
+      </c>
+      <c r="H179" s="9">
+        <v>35431718</v>
+      </c>
+      <c r="I179" s="9">
+        <v>38867446</v>
+      </c>
+      <c r="J179" s="9">
         <v>40164852</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>40750877</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>28000000</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>157203240</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>156246080</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
+        <v>119000000</v>
+      </c>
+      <c r="F180" s="11">
+        <v>141800000</v>
+      </c>
+      <c r="G180" s="11">
+        <v>166708333</v>
+      </c>
+      <c r="H180" s="11">
+        <v>156333333</v>
+      </c>
+      <c r="I180" s="11">
+        <v>166320000</v>
+      </c>
+      <c r="J180" s="11">
         <v>230250000</v>
       </c>
-      <c r="F180" s="11">
+      <c r="K180" s="11">
         <v>190250000</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H180" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I180" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L180" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M180" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>15957</v>
+      </c>
+      <c r="F181" s="9">
+        <v>17626</v>
+      </c>
+      <c r="G181" s="9">
+        <v>22375</v>
+      </c>
+      <c r="H181" s="9">
+        <v>28568</v>
+      </c>
+      <c r="I181" s="9">
+        <v>31844</v>
+      </c>
+      <c r="J181" s="9">
         <v>33243</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>36350</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>38025</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>40755</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>42372</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>73710280</v>
+      </c>
+      <c r="F182" s="11">
+        <v>75070175</v>
+      </c>
+      <c r="G182" s="11">
+        <v>102603448</v>
+      </c>
+      <c r="H182" s="11">
+        <v>82399312</v>
+      </c>
+      <c r="I182" s="11">
+        <v>90161074</v>
+      </c>
+      <c r="J182" s="11">
         <v>146000000</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>147589041</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>141108939</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>164487768</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>175085459</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
+        <v>39448449</v>
+      </c>
+      <c r="F183" s="9">
+        <v>68650724</v>
+      </c>
+      <c r="G183" s="9">
+        <v>68666106</v>
+      </c>
+      <c r="H183" s="9">
+        <v>56005925</v>
+      </c>
+      <c r="I183" s="9">
+        <v>86077922</v>
+      </c>
+      <c r="J183" s="9">
         <v>111607021</v>
       </c>
-      <c r="F183" s="9">
+      <c r="K183" s="9">
         <v>119042553</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>114636364</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>138121987</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>138245810</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
+        <v>177300912</v>
+      </c>
+      <c r="F184" s="11">
+        <v>225453947</v>
+      </c>
+      <c r="G184" s="11">
+        <v>349052885</v>
+      </c>
+      <c r="H184" s="11">
+        <v>289425455</v>
+      </c>
+      <c r="I184" s="11">
+        <v>473354962</v>
+      </c>
+      <c r="J184" s="11">
         <v>420698885</v>
       </c>
-      <c r="F184" s="11">
+      <c r="K184" s="11">
         <v>454967427</v>
       </c>
-      <c r="G184" s="11">
+      <c r="L184" s="11">
         <v>411507143</v>
       </c>
-      <c r="H184" s="11">
+      <c r="M184" s="11">
         <v>521615385</v>
       </c>
-      <c r="I184" s="11">
+      <c r="N184" s="11">
         <v>526775000</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4501,8 +6836,13 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4511,8 +6851,13 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4521,10 +6866,15 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -4543,8 +6893,23 @@
       <c r="I188" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M188" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4553,296 +6918,481 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I190" s="9">
+        <v>31</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N190" s="9">
         <v>1209500000</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D191" s="11"/>
-      <c r="E191" s="11">
+      <c r="E191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="11">
+        <v>170076923</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="11">
+        <v>183646465</v>
+      </c>
+      <c r="J191" s="11">
         <v>201000000</v>
       </c>
-      <c r="F191" s="11">
+      <c r="K191" s="11">
         <v>1789000000</v>
       </c>
-      <c r="G191" s="11">
+      <c r="L191" s="11">
         <v>169360963</v>
       </c>
-      <c r="H191" s="11">
+      <c r="M191" s="11">
         <v>539111111</v>
       </c>
-      <c r="I191" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N191" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D192" s="9"/>
-      <c r="E192" s="9">
+      <c r="E192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" s="9">
+        <v>407932660</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" s="9">
         <v>422753623</v>
       </c>
-      <c r="F192" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H192" s="9">
+      <c r="K192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M192" s="9">
         <v>905705882</v>
       </c>
-      <c r="I192" s="9">
+      <c r="N192" s="9">
         <v>799350000</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N194" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
+        <v>529583333</v>
+      </c>
+      <c r="F195" s="11">
+        <v>689885135</v>
+      </c>
+      <c r="G195" s="11">
+        <v>717461140</v>
+      </c>
+      <c r="H195" s="11">
+        <v>820984615</v>
+      </c>
+      <c r="I195" s="11">
+        <v>705304094</v>
+      </c>
+      <c r="J195" s="11">
         <v>1041420792</v>
       </c>
-      <c r="F195" s="11">
+      <c r="K195" s="11">
         <v>707094937</v>
       </c>
-      <c r="G195" s="11">
+      <c r="L195" s="11">
         <v>900726115</v>
       </c>
-      <c r="H195" s="11">
+      <c r="M195" s="11">
         <v>859260606</v>
       </c>
-      <c r="I195" s="11">
+      <c r="N195" s="11">
         <v>734087336</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
+        <v>30118860</v>
+      </c>
+      <c r="F196" s="9">
+        <v>33730397</v>
+      </c>
+      <c r="G196" s="9">
+        <v>35631641</v>
+      </c>
+      <c r="H196" s="9">
+        <v>38409409</v>
+      </c>
+      <c r="I196" s="9">
+        <v>39661967</v>
+      </c>
+      <c r="J196" s="9">
         <v>40408929</v>
       </c>
-      <c r="F196" s="9">
+      <c r="K196" s="9">
         <v>38241619</v>
       </c>
-      <c r="G196" s="9">
+      <c r="L196" s="9">
         <v>145824193</v>
       </c>
-      <c r="H196" s="9">
+      <c r="M196" s="9">
         <v>156833776</v>
       </c>
-      <c r="I196" s="9">
+      <c r="N196" s="9">
         <v>155246139</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
+        <v>111711752</v>
+      </c>
+      <c r="F197" s="11">
+        <v>147244782</v>
+      </c>
+      <c r="G197" s="11">
+        <v>180528037</v>
+      </c>
+      <c r="H197" s="11">
+        <v>138233261</v>
+      </c>
+      <c r="I197" s="11">
+        <v>197791667</v>
+      </c>
+      <c r="J197" s="11">
         <v>223348797</v>
       </c>
-      <c r="F197" s="11">
+      <c r="K197" s="11">
         <v>226688337</v>
       </c>
-      <c r="G197" s="11">
+      <c r="L197" s="11">
         <v>264831967</v>
       </c>
-      <c r="H197" s="11">
+      <c r="M197" s="11">
         <v>370287234</v>
       </c>
-      <c r="I197" s="11">
+      <c r="N197" s="11">
         <v>422224832</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
+        <v>23835</v>
+      </c>
+      <c r="F198" s="9">
+        <v>31583</v>
+      </c>
+      <c r="G198" s="9">
+        <v>35510</v>
+      </c>
+      <c r="H198" s="9">
+        <v>39021</v>
+      </c>
+      <c r="I198" s="9">
+        <v>41144</v>
+      </c>
+      <c r="J198" s="9">
         <v>43285</v>
       </c>
-      <c r="F198" s="9">
+      <c r="K198" s="9">
         <v>49867</v>
       </c>
-      <c r="G198" s="9">
+      <c r="L198" s="9">
         <v>53252</v>
       </c>
-      <c r="H198" s="9">
+      <c r="M198" s="9">
         <v>62443</v>
       </c>
-      <c r="I198" s="9">
+      <c r="N198" s="9">
         <v>61996</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
+        <v>80027356</v>
+      </c>
+      <c r="F199" s="11">
+        <v>92774818</v>
+      </c>
+      <c r="G199" s="11">
+        <v>88325784</v>
+      </c>
+      <c r="H199" s="11">
+        <v>124127358</v>
+      </c>
+      <c r="I199" s="11">
+        <v>130516484</v>
+      </c>
+      <c r="J199" s="11">
         <v>145490240</v>
       </c>
-      <c r="F199" s="11">
+      <c r="K199" s="11">
         <v>138636868</v>
       </c>
-      <c r="G199" s="11">
+      <c r="L199" s="11">
         <v>582658824</v>
       </c>
-      <c r="H199" s="11">
+      <c r="M199" s="11">
         <v>817357143</v>
       </c>
-      <c r="I199" s="11">
+      <c r="N199" s="11">
         <v>561988593</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9">
+        <v>78275775</v>
+      </c>
+      <c r="F200" s="9">
+        <v>68429864</v>
+      </c>
+      <c r="G200" s="9">
+        <v>41033607</v>
+      </c>
+      <c r="H200" s="9">
+        <v>117488432</v>
+      </c>
+      <c r="I200" s="9">
+        <v>118615160</v>
+      </c>
+      <c r="J200" s="9">
         <v>128575450</v>
       </c>
-      <c r="F200" s="9">
+      <c r="K200" s="9">
         <v>132682848</v>
       </c>
-      <c r="G200" s="9">
+      <c r="L200" s="9">
         <v>137645713</v>
       </c>
-      <c r="H200" s="9">
+      <c r="M200" s="9">
         <v>-490000000</v>
       </c>
-      <c r="I200" s="9">
+      <c r="N200" s="9">
         <v>183519637</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
+        <v>173270451</v>
+      </c>
+      <c r="F201" s="11">
+        <v>233911654</v>
+      </c>
+      <c r="G201" s="11">
+        <v>249674286</v>
+      </c>
+      <c r="H201" s="11">
+        <v>347906122</v>
+      </c>
+      <c r="I201" s="11">
+        <v>248660900</v>
+      </c>
+      <c r="J201" s="11">
         <v>334005891</v>
       </c>
-      <c r="F201" s="11">
+      <c r="K201" s="11">
         <v>388823748</v>
       </c>
-      <c r="G201" s="11">
+      <c r="L201" s="11">
         <v>475498956</v>
       </c>
-      <c r="H201" s="11">
+      <c r="M201" s="11">
         <v>469379965</v>
       </c>
-      <c r="I201" s="11">
+      <c r="N201" s="11">
         <v>585425656</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4851,8 +7401,13 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4861,8 +7416,13 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4871,10 +7431,15 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -4893,8 +7458,23 @@
       <c r="I205" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M205" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N205" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4903,296 +7483,481 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I207" s="9">
+        <v>31</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N207" s="9">
         <v>186846154</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="11">
+      <c r="E208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="11">
+        <v>171733333</v>
+      </c>
+      <c r="H208" s="11">
+        <v>146805556</v>
+      </c>
+      <c r="I208" s="11">
+        <v>177611765</v>
+      </c>
+      <c r="J208" s="11">
         <v>179847826</v>
       </c>
-      <c r="F208" s="11">
+      <c r="K208" s="11">
         <v>177532609</v>
       </c>
-      <c r="G208" s="11">
+      <c r="L208" s="11">
         <v>199109756</v>
       </c>
-      <c r="H208" s="11">
+      <c r="M208" s="11">
         <v>163489796</v>
       </c>
-      <c r="I208" s="11">
+      <c r="N208" s="11">
         <v>166371429</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
+        <v>162933333</v>
+      </c>
+      <c r="F209" s="9">
+        <v>156000000</v>
+      </c>
+      <c r="G209" s="9">
+        <v>332200000</v>
+      </c>
+      <c r="H209" s="9">
+        <v>396823529</v>
+      </c>
+      <c r="I209" s="9">
+        <v>410178571</v>
+      </c>
+      <c r="J209" s="9">
         <v>435666667</v>
       </c>
-      <c r="F209" s="9">
+      <c r="K209" s="9">
         <v>375650000</v>
       </c>
-      <c r="G209" s="9">
+      <c r="L209" s="9">
         <v>432733333</v>
       </c>
-      <c r="H209" s="9">
+      <c r="M209" s="9">
         <v>879342857</v>
       </c>
-      <c r="I209" s="9">
+      <c r="N209" s="9">
         <v>818717391</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
+        <v>2121000000</v>
+      </c>
+      <c r="F211" s="9">
+        <v>1981500000</v>
+      </c>
+      <c r="G211" s="9">
+        <v>1757333333</v>
+      </c>
+      <c r="H211" s="9">
+        <v>2254500000</v>
+      </c>
+      <c r="I211" s="9">
+        <v>1711000000</v>
+      </c>
+      <c r="J211" s="9">
         <v>2117500000</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H211" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I211" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K211" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M211" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N211" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11">
+        <v>495864865</v>
+      </c>
+      <c r="F212" s="11">
+        <v>631972973</v>
+      </c>
+      <c r="G212" s="11">
+        <v>712701299</v>
+      </c>
+      <c r="H212" s="11">
+        <v>790239130</v>
+      </c>
+      <c r="I212" s="11">
+        <v>709171975</v>
+      </c>
+      <c r="J212" s="11">
         <v>849700508</v>
       </c>
-      <c r="F212" s="11">
+      <c r="K212" s="11">
         <v>873476510</v>
       </c>
-      <c r="G212" s="11">
+      <c r="L212" s="11">
         <v>885240000</v>
       </c>
-      <c r="H212" s="11">
+      <c r="M212" s="11">
         <v>917880795</v>
       </c>
-      <c r="I212" s="11">
+      <c r="N212" s="11">
         <v>909032086</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
+        <v>30186472</v>
+      </c>
+      <c r="F213" s="9">
+        <v>33333820</v>
+      </c>
+      <c r="G213" s="9">
+        <v>35640337</v>
+      </c>
+      <c r="H213" s="9">
+        <v>38010936</v>
+      </c>
+      <c r="I213" s="9">
+        <v>39384674</v>
+      </c>
+      <c r="J213" s="9">
         <v>40335170</v>
       </c>
-      <c r="F213" s="9">
+      <c r="K213" s="9">
         <v>38507326</v>
       </c>
-      <c r="G213" s="9">
+      <c r="L213" s="9">
         <v>142811828</v>
       </c>
-      <c r="H213" s="9">
+      <c r="M213" s="9">
         <v>157091480</v>
       </c>
-      <c r="I213" s="9">
+      <c r="N213" s="9">
         <v>155468147</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
+        <v>111041667</v>
+      </c>
+      <c r="F214" s="11">
+        <v>146185328</v>
+      </c>
+      <c r="G214" s="11">
+        <v>179951002</v>
+      </c>
+      <c r="H214" s="11">
+        <v>136764172</v>
+      </c>
+      <c r="I214" s="11">
+        <v>195686117</v>
+      </c>
+      <c r="J214" s="11">
         <v>224607018</v>
       </c>
-      <c r="F214" s="11">
+      <c r="K214" s="11">
         <v>225346225</v>
       </c>
-      <c r="G214" s="11">
+      <c r="L214" s="11">
         <v>264050000</v>
       </c>
-      <c r="H214" s="11">
+      <c r="M214" s="11">
         <v>364758879</v>
       </c>
-      <c r="I214" s="11">
+      <c r="N214" s="11">
         <v>422192434</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
+        <v>23475</v>
+      </c>
+      <c r="F215" s="9">
+        <v>30122</v>
+      </c>
+      <c r="G215" s="9">
+        <v>34298</v>
+      </c>
+      <c r="H215" s="9">
+        <v>38258</v>
+      </c>
+      <c r="I215" s="9">
+        <v>40746</v>
+      </c>
+      <c r="J215" s="9">
         <v>42640</v>
       </c>
-      <c r="F215" s="9">
+      <c r="K215" s="9">
         <v>49066</v>
       </c>
-      <c r="G215" s="9">
+      <c r="L215" s="9">
         <v>52451</v>
       </c>
-      <c r="H215" s="9">
+      <c r="M215" s="9">
         <v>61693</v>
       </c>
-      <c r="I215" s="9">
+      <c r="N215" s="9">
         <v>60023</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
+        <v>78989446</v>
+      </c>
+      <c r="F216" s="11">
+        <v>88941748</v>
+      </c>
+      <c r="G216" s="11">
+        <v>95160000</v>
+      </c>
+      <c r="H216" s="11">
+        <v>95597980</v>
+      </c>
+      <c r="I216" s="11">
+        <v>105377871</v>
+      </c>
+      <c r="J216" s="11">
         <v>143451183</v>
       </c>
-      <c r="F216" s="11">
+      <c r="K216" s="11">
         <v>141615542</v>
       </c>
-      <c r="G216" s="11">
+      <c r="L216" s="11">
         <v>153370370</v>
       </c>
-      <c r="H216" s="11">
+      <c r="M216" s="11">
         <v>198254417</v>
       </c>
-      <c r="I216" s="11">
+      <c r="N216" s="11">
         <v>326102603</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
+        <v>64909091</v>
+      </c>
+      <c r="F217" s="9">
+        <v>68668942</v>
+      </c>
+      <c r="G217" s="9">
+        <v>58921265</v>
+      </c>
+      <c r="H217" s="9">
+        <v>56674868</v>
+      </c>
+      <c r="I217" s="9">
+        <v>105807137</v>
+      </c>
+      <c r="J217" s="9">
         <v>118904161</v>
       </c>
-      <c r="F217" s="9">
+      <c r="K217" s="9">
         <v>128200577</v>
       </c>
-      <c r="G217" s="9">
+      <c r="L217" s="9">
         <v>136454686</v>
       </c>
-      <c r="H217" s="9">
+      <c r="M217" s="9">
         <v>138449757</v>
       </c>
-      <c r="I217" s="9">
+      <c r="N217" s="9">
         <v>151857823</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
+        <v>149972756</v>
+      </c>
+      <c r="F218" s="11">
+        <v>191681529</v>
+      </c>
+      <c r="G218" s="11">
+        <v>286703163</v>
+      </c>
+      <c r="H218" s="11">
+        <v>250590457</v>
+      </c>
+      <c r="I218" s="11">
+        <v>270712785</v>
+      </c>
+      <c r="J218" s="11">
         <v>312453978</v>
       </c>
-      <c r="F218" s="11">
+      <c r="K218" s="11">
         <v>413478799</v>
       </c>
-      <c r="G218" s="11">
+      <c r="L218" s="11">
         <v>427785461</v>
       </c>
-      <c r="H218" s="11">
+      <c r="M218" s="11">
         <v>463600701</v>
       </c>
-      <c r="I218" s="11">
+      <c r="N218" s="11">
         <v>518567455</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5201,8 +7966,13 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -5211,8 +7981,13 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5221,10 +7996,15 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -5243,8 +8023,23 @@
       <c r="I222" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L222" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M222" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N222" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5253,296 +8048,481 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H224" s="9">
+        <v>31</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K224" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L224" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M224" s="9">
         <v>746090909</v>
       </c>
-      <c r="I224" s="9">
+      <c r="N224" s="9">
         <v>766031250</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D225" s="11"/>
-      <c r="E225" s="11">
+      <c r="E225" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I225" s="11">
+        <v>180769784</v>
+      </c>
+      <c r="J225" s="11">
         <v>192906542</v>
       </c>
-      <c r="F225" s="11">
+      <c r="K225" s="11">
         <v>179928571</v>
       </c>
-      <c r="G225" s="11">
+      <c r="L225" s="11">
         <v>167186907</v>
       </c>
-      <c r="H225" s="11">
+      <c r="M225" s="11">
         <v>164034847</v>
       </c>
-      <c r="I225" s="11">
+      <c r="N225" s="11">
         <v>163743468</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D226" s="9"/>
-      <c r="E226" s="9">
+      <c r="E226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I226" s="9">
+        <v>400464435</v>
+      </c>
+      <c r="J226" s="9">
         <v>421882353</v>
       </c>
-      <c r="F226" s="9">
+      <c r="K226" s="9">
         <v>424548387</v>
       </c>
-      <c r="G226" s="9">
+      <c r="L226" s="9">
         <v>179000000</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I226" s="9">
+      <c r="M226" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N226" s="9">
         <v>749714286</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J227" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L227" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M227" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N227" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I228" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I228" s="9">
+        <v>2117500000</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K228" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L228" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M228" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N228" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D229" s="11"/>
-      <c r="E229" s="11">
+      <c r="E229" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I229" s="11">
+        <v>460450000</v>
+      </c>
+      <c r="J229" s="11">
         <v>706957576</v>
       </c>
-      <c r="F229" s="11">
+      <c r="K229" s="11">
         <v>564488506</v>
       </c>
-      <c r="G229" s="11">
+      <c r="L229" s="11">
         <v>590325967</v>
       </c>
-      <c r="H229" s="11">
+      <c r="M229" s="11">
         <v>564241026</v>
       </c>
-      <c r="I229" s="11">
+      <c r="N229" s="11">
         <v>456303797</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D230" s="9"/>
-      <c r="E230" s="9">
+      <c r="E230" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H230" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I230" s="9">
+        <v>40164852</v>
+      </c>
+      <c r="J230" s="9">
         <v>40750877</v>
       </c>
-      <c r="F230" s="9">
+      <c r="K230" s="9">
         <v>28000000</v>
       </c>
-      <c r="G230" s="9">
+      <c r="L230" s="9">
         <v>157203240</v>
       </c>
-      <c r="H230" s="9">
+      <c r="M230" s="9">
         <v>156246080</v>
       </c>
-      <c r="I230" s="9">
+      <c r="N230" s="9">
         <v>155400000</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D231" s="11"/>
-      <c r="E231" s="11">
+      <c r="E231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I231" s="11">
+        <v>230250000</v>
+      </c>
+      <c r="J231" s="11">
         <v>190250000</v>
       </c>
-      <c r="F231" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" s="11">
+      <c r="K231" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L231" s="11">
         <v>311750000</v>
       </c>
-      <c r="H231" s="11">
+      <c r="M231" s="11">
         <v>437567568</v>
       </c>
-      <c r="I231" s="11">
+      <c r="N231" s="11">
         <v>445720000</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D232" s="9"/>
-      <c r="E232" s="9">
+      <c r="E232" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I232" s="9">
+        <v>33243</v>
+      </c>
+      <c r="J232" s="9">
         <v>36350</v>
       </c>
-      <c r="F232" s="9">
+      <c r="K232" s="9">
         <v>38025</v>
       </c>
-      <c r="G232" s="9">
+      <c r="L232" s="9">
         <v>40755</v>
       </c>
-      <c r="H232" s="9">
+      <c r="M232" s="9">
         <v>42372</v>
       </c>
-      <c r="I232" s="9">
+      <c r="N232" s="9">
         <v>48838</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D233" s="11"/>
-      <c r="E233" s="11">
+      <c r="E233" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H233" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I233" s="11">
+        <v>146000000</v>
+      </c>
+      <c r="J233" s="11">
         <v>147589041</v>
       </c>
-      <c r="F233" s="11">
+      <c r="K233" s="11">
         <v>141108939</v>
       </c>
-      <c r="G233" s="11">
+      <c r="L233" s="11">
         <v>164487768</v>
       </c>
-      <c r="H233" s="11">
+      <c r="M233" s="11">
         <v>175085459</v>
       </c>
-      <c r="I233" s="11">
+      <c r="N233" s="11">
         <v>435785292</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D234" s="9"/>
-      <c r="E234" s="9">
+      <c r="E234" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H234" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I234" s="9">
+        <v>111607021</v>
+      </c>
+      <c r="J234" s="9">
         <v>119042553</v>
       </c>
-      <c r="F234" s="9">
+      <c r="K234" s="9">
         <v>114636364</v>
       </c>
-      <c r="G234" s="9">
+      <c r="L234" s="9">
         <v>138121987</v>
       </c>
-      <c r="H234" s="9">
+      <c r="M234" s="9">
         <v>138245810</v>
       </c>
-      <c r="I234" s="9">
+      <c r="N234" s="9">
         <v>179608259</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D235" s="11"/>
-      <c r="E235" s="11">
+      <c r="E235" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H235" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I235" s="11">
+        <v>420698885</v>
+      </c>
+      <c r="J235" s="11">
         <v>454967427</v>
       </c>
-      <c r="F235" s="11">
+      <c r="K235" s="11">
         <v>411507143</v>
       </c>
-      <c r="G235" s="11">
+      <c r="L235" s="11">
         <v>521615385</v>
       </c>
-      <c r="H235" s="11">
+      <c r="M235" s="11">
         <v>526775000</v>
       </c>
-      <c r="I235" s="11">
+      <c r="N235" s="11">
         <v>803035928</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5551,8 +8531,13 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -5561,8 +8546,13 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5571,10 +8561,15 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+    </row>
+    <row r="239" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B239" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -5593,8 +8588,23 @@
       <c r="I239" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J239" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M239" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N239" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5603,10 +8613,15 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -5625,10 +8640,25 @@
       <c r="I241" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J241" s="9">
+        <v>0</v>
+      </c>
+      <c r="K241" s="9">
+        <v>0</v>
+      </c>
+      <c r="L241" s="9">
+        <v>0</v>
+      </c>
+      <c r="M241" s="9">
+        <v>0</v>
+      </c>
+      <c r="N241" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -5647,10 +8677,25 @@
       <c r="I242" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J242" s="11">
+        <v>0</v>
+      </c>
+      <c r="K242" s="11">
+        <v>0</v>
+      </c>
+      <c r="L242" s="11">
+        <v>0</v>
+      </c>
+      <c r="M242" s="11">
+        <v>0</v>
+      </c>
+      <c r="N242" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -5669,10 +8714,25 @@
       <c r="I243" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J243" s="9">
+        <v>0</v>
+      </c>
+      <c r="K243" s="9">
+        <v>0</v>
+      </c>
+      <c r="L243" s="9">
+        <v>0</v>
+      </c>
+      <c r="M243" s="9">
+        <v>0</v>
+      </c>
+      <c r="N243" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -5691,98 +8751,173 @@
       <c r="I244" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J244" s="11">
+        <v>0</v>
+      </c>
+      <c r="K244" s="11">
+        <v>0</v>
+      </c>
+      <c r="L244" s="11">
+        <v>0</v>
+      </c>
+      <c r="M244" s="11">
+        <v>0</v>
+      </c>
+      <c r="N244" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
+        <v>11064</v>
+      </c>
+      <c r="F245" s="9">
+        <v>8882</v>
+      </c>
+      <c r="G245" s="9">
+        <v>20922</v>
+      </c>
+      <c r="H245" s="9">
+        <v>20877</v>
+      </c>
+      <c r="I245" s="9">
+        <v>12301</v>
+      </c>
+      <c r="J245" s="9">
         <v>41581</v>
       </c>
-      <c r="F245" s="9">
+      <c r="K245" s="9">
         <v>11233</v>
       </c>
-      <c r="G245" s="9">
+      <c r="L245" s="9">
         <v>20469</v>
       </c>
-      <c r="H245" s="9">
+      <c r="M245" s="9">
         <v>23919</v>
       </c>
-      <c r="I245" s="9">
+      <c r="N245" s="9">
         <v>29355</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
+        <v>4055</v>
+      </c>
+      <c r="F246" s="11">
+        <v>2036</v>
+      </c>
+      <c r="G246" s="11">
+        <v>3301</v>
+      </c>
+      <c r="H246" s="11">
+        <v>3556</v>
+      </c>
+      <c r="I246" s="11">
+        <v>5489</v>
+      </c>
+      <c r="J246" s="11">
         <v>7026</v>
       </c>
-      <c r="F246" s="11">
+      <c r="K246" s="11">
         <v>13826</v>
       </c>
-      <c r="G246" s="11">
+      <c r="L246" s="11">
         <v>6335</v>
       </c>
-      <c r="H246" s="11">
+      <c r="M246" s="11">
         <v>9011</v>
       </c>
-      <c r="I246" s="11">
+      <c r="N246" s="11">
         <v>9143</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
+        <v>43338</v>
+      </c>
+      <c r="F247" s="9">
+        <v>41749</v>
+      </c>
+      <c r="G247" s="9">
+        <v>43123</v>
+      </c>
+      <c r="H247" s="9">
+        <v>44007</v>
+      </c>
+      <c r="I247" s="9">
+        <v>44536</v>
+      </c>
+      <c r="J247" s="9">
         <v>43361</v>
       </c>
-      <c r="F247" s="9">
+      <c r="K247" s="9">
         <v>44515</v>
       </c>
-      <c r="G247" s="9">
+      <c r="L247" s="9">
         <v>47856</v>
       </c>
-      <c r="H247" s="9">
+      <c r="M247" s="9">
         <v>47888</v>
       </c>
-      <c r="I247" s="9">
+      <c r="N247" s="9">
         <v>46951</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11">
+        <v>56933</v>
+      </c>
+      <c r="F248" s="11">
+        <v>46004</v>
+      </c>
+      <c r="G248" s="11">
+        <v>52809</v>
+      </c>
+      <c r="H248" s="11">
+        <v>67742</v>
+      </c>
+      <c r="I248" s="11">
+        <v>75009</v>
+      </c>
+      <c r="J248" s="11">
         <v>99267</v>
       </c>
-      <c r="F248" s="11">
+      <c r="K248" s="11">
         <v>94672</v>
       </c>
-      <c r="G248" s="11">
+      <c r="L248" s="11">
         <v>121932</v>
       </c>
-      <c r="H248" s="11">
+      <c r="M248" s="11">
         <v>137828</v>
       </c>
-      <c r="I248" s="11">
+      <c r="N248" s="11">
         <v>131168</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -5801,52 +8936,97 @@
       <c r="I249" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J249" s="9">
+        <v>0</v>
+      </c>
+      <c r="K249" s="9">
+        <v>0</v>
+      </c>
+      <c r="L249" s="9">
+        <v>0</v>
+      </c>
+      <c r="M249" s="9">
+        <v>0</v>
+      </c>
+      <c r="N249" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B250" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11">
+        <v>5420</v>
+      </c>
+      <c r="F250" s="11">
+        <v>8439</v>
+      </c>
+      <c r="G250" s="11">
+        <v>7695</v>
+      </c>
+      <c r="H250" s="11">
+        <v>7551</v>
+      </c>
+      <c r="I250" s="11">
+        <v>12827</v>
+      </c>
+      <c r="J250" s="11">
         <v>11209</v>
       </c>
-      <c r="F250" s="11">
+      <c r="K250" s="11">
         <v>22630</v>
       </c>
-      <c r="G250" s="11">
+      <c r="L250" s="11">
         <v>11468</v>
       </c>
-      <c r="H250" s="11">
+      <c r="M250" s="11">
         <v>23036</v>
       </c>
-      <c r="I250" s="11">
+      <c r="N250" s="11">
         <v>22119</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B251" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15">
+        <v>120810</v>
+      </c>
+      <c r="F251" s="15">
+        <v>107110</v>
+      </c>
+      <c r="G251" s="15">
+        <v>127850</v>
+      </c>
+      <c r="H251" s="15">
+        <v>143733</v>
+      </c>
+      <c r="I251" s="15">
+        <v>150162</v>
+      </c>
+      <c r="J251" s="15">
         <v>202444</v>
       </c>
-      <c r="F251" s="15">
+      <c r="K251" s="15">
         <v>186876</v>
       </c>
-      <c r="G251" s="15">
+      <c r="L251" s="15">
         <v>208060</v>
       </c>
-      <c r="H251" s="15">
+      <c r="M251" s="15">
         <v>241682</v>
       </c>
-      <c r="I251" s="15">
+      <c r="N251" s="15">
         <v>238736</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -5855,8 +9035,13 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -5865,8 +9050,13 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -5875,10 +9065,15 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+    </row>
+    <row r="255" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B255" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -5887,8 +9082,13 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -5897,13 +9097,18 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B257" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -5911,123 +9116,128 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B258" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B259" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B260" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B261" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B262" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B263" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B264" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B265" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B266" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B267" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B268" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
